--- a/downloads/projection/CustomersReports.xlsx
+++ b/downloads/projection/CustomersReports.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="731">
   <si>
     <t>ID</t>
   </si>
@@ -109,595 +109,601 @@
     <t>23.01.2023</t>
   </si>
   <si>
+    <t>31.01.2023</t>
+  </si>
+  <si>
+    <t>Эконом:21 Комфорт:7 Комфорт+:8</t>
+  </si>
+  <si>
+    <t>Эконом:541 Комфорт:219 Комфорт+:415</t>
+  </si>
+  <si>
+    <t>Эконом:11349 Комфорт:4597 Комфорт+:8715</t>
+  </si>
+  <si>
+    <t>ООО "Керама Центр"</t>
+  </si>
+  <si>
+    <t>Осипова Елена</t>
+  </si>
+  <si>
+    <t>18.01.2023</t>
+  </si>
+  <si>
+    <t>ООО «Автоматика-Сервис»</t>
+  </si>
+  <si>
+    <t>09.01.2023</t>
+  </si>
+  <si>
+    <t>10.01.2023</t>
+  </si>
+  <si>
+    <t>Эконом:59 Комфорт:35 Бизнес:2</t>
+  </si>
+  <si>
+    <t>Эконом:11039 Комфорт:21590 Бизнес:1704</t>
+  </si>
+  <si>
+    <t>Эконом:58992 Комфорт:68730 Бизнес:4814</t>
+  </si>
+  <si>
+    <t>ООО «ЗСА продакшн»</t>
+  </si>
+  <si>
+    <t>30.12.2022</t>
+  </si>
+  <si>
+    <t>ООО «РТКлауд»</t>
+  </si>
+  <si>
+    <t>29.12.2022</t>
+  </si>
+  <si>
+    <t>ООО "Телеком XXI Век"</t>
+  </si>
+  <si>
+    <t>Эконом:0</t>
+  </si>
+  <si>
+    <t>Слишком большое время ожидания:1</t>
+  </si>
+  <si>
+    <t>ООО "Романтика"/ Пиццерия Пермь</t>
+  </si>
+  <si>
+    <t>19.12.2022</t>
+  </si>
+  <si>
+    <t>22.12.2022</t>
+  </si>
+  <si>
+    <t>30.01.2023</t>
+  </si>
+  <si>
+    <t>Эконом:85 Комфорт+:1</t>
+  </si>
+  <si>
+    <t>Эконом:1777 Комфорт+:41</t>
+  </si>
+  <si>
+    <t>Эконом:37312 Комфорт+:853</t>
+  </si>
+  <si>
+    <t>ООО «Даер Рус»</t>
+  </si>
+  <si>
+    <t>14.12.2022</t>
+  </si>
+  <si>
+    <t>ООО "Котэс"</t>
+  </si>
+  <si>
+    <t>08.12.2022</t>
+  </si>
+  <si>
+    <t>13.12.2022</t>
+  </si>
+  <si>
+    <t>Эконом:1</t>
+  </si>
+  <si>
+    <t>Эконом:57</t>
+  </si>
+  <si>
+    <t>Эконом:340</t>
+  </si>
+  <si>
+    <t>тестовый кабинет (удалить)</t>
+  </si>
+  <si>
+    <t>07.12.2022</t>
+  </si>
+  <si>
+    <t>ООО «ЛБС Международные конференции»</t>
+  </si>
+  <si>
+    <t>Шевцов Максим</t>
+  </si>
+  <si>
+    <t>06.12.2022</t>
+  </si>
+  <si>
+    <t>ООО «Газпромнефть-ЦР» (ДЦИ)</t>
+  </si>
+  <si>
+    <t>12.01.2023</t>
+  </si>
+  <si>
+    <t>Эконом:504</t>
+  </si>
+  <si>
+    <t>Эконом:1202</t>
+  </si>
+  <si>
+    <t>ООО «Газпромнефть-ЦР» (1С)</t>
+  </si>
+  <si>
+    <t>ООО «Газпромнефть-ЦР» (ДРиД)</t>
+  </si>
+  <si>
+    <t>02.12.2022</t>
+  </si>
+  <si>
+    <t>ООО «Газпромнефть-ЦР» (ДПС)</t>
+  </si>
+  <si>
+    <t>27.01.2023</t>
+  </si>
+  <si>
+    <t>Эконом:21 Комфорт:18 Бизнес:12</t>
+  </si>
+  <si>
+    <t>Эконом:8165 Комфорт:14047 Бизнес:2785</t>
+  </si>
+  <si>
+    <t>Эконом:18187 Комфорт:29917 Бизнес:13032</t>
+  </si>
+  <si>
+    <t>ООО «Газпромнефть-ЦР» (ДИБ)</t>
+  </si>
+  <si>
+    <t>ООО «Газпромнефть-ЦР» (ДКФ)</t>
+  </si>
+  <si>
+    <t>Эконом:20 Комфорт:25</t>
+  </si>
+  <si>
+    <t>Эконом:3995 Комфорт:17236</t>
+  </si>
+  <si>
+    <t>Эконом:9730 Комфорт:41370</t>
+  </si>
+  <si>
+    <t>ООО «Газпромнефть-ЦР» (ДППУ)</t>
+  </si>
+  <si>
+    <t>ООО «Газпромнефть-ЦР» (ДИР)</t>
+  </si>
+  <si>
+    <t>ООО «Газпромнефть-ЦР» (ДРП)</t>
+  </si>
+  <si>
+    <t>ООО «Газпромнефть-ЦР» (ДПР)</t>
+  </si>
+  <si>
+    <t>АО "ХС-Наука"</t>
+  </si>
+  <si>
+    <t>09.12.2022</t>
+  </si>
+  <si>
+    <t>Эконом:2</t>
+  </si>
+  <si>
+    <t>Эконом:168</t>
+  </si>
+  <si>
+    <t>Эконом:1283</t>
+  </si>
+  <si>
+    <t>ООО «Газпромнефть-ЦР» (ДКР)</t>
+  </si>
+  <si>
+    <t>28.12.2022</t>
+  </si>
+  <si>
+    <t>ГБУЗ "НКМЦ им А.С. Логинова"</t>
+  </si>
+  <si>
+    <t>Бутова Светлана</t>
+  </si>
+  <si>
+    <t>01.12.2022</t>
+  </si>
+  <si>
+    <t>18.12.2022</t>
+  </si>
+  <si>
+    <t>ООО «Газпромнефть-ЦР» (ЦА)</t>
+  </si>
+  <si>
+    <t>29.11.2022</t>
+  </si>
+  <si>
+    <t>Бизнес:1</t>
+  </si>
+  <si>
+    <t>Бизнес:176</t>
+  </si>
+  <si>
+    <t>Бизнес:806</t>
+  </si>
+  <si>
+    <t>ООО "МД-Групп"</t>
+  </si>
+  <si>
+    <t>28.11.2022</t>
+  </si>
+  <si>
+    <t>28.01.2023</t>
+  </si>
+  <si>
+    <t>Эконом:11</t>
+  </si>
+  <si>
+    <t>Эконом:249</t>
+  </si>
+  <si>
+    <t>Эконом:5213</t>
+  </si>
+  <si>
+    <t>Заказал по ошибке:1</t>
+  </si>
+  <si>
+    <t>ГКУ Новые технологии управления</t>
+  </si>
+  <si>
+    <t>25.11.2022</t>
+  </si>
+  <si>
+    <t>Комфорт:71 Комфорт+:2</t>
+  </si>
+  <si>
+    <t>Комфорт:5020 Комфорт+:-460</t>
+  </si>
+  <si>
+    <t>Комфорт:52814 Комфорт+:1620</t>
+  </si>
+  <si>
+    <t>ООО "БалтТрансСервис"</t>
+  </si>
+  <si>
+    <t>Батыгин Антон</t>
+  </si>
+  <si>
+    <t>22.11.2022</t>
+  </si>
+  <si>
+    <t>24.11.2022</t>
+  </si>
+  <si>
+    <t>Эконом:3</t>
+  </si>
+  <si>
+    <t>Эконом:204 Комфорт:0</t>
+  </si>
+  <si>
+    <t>Эконом:1559 Комфорт:0</t>
+  </si>
+  <si>
+    <t>ООО ”Компания Выставочные материалы”</t>
+  </si>
+  <si>
+    <t>17.11.2022</t>
+  </si>
+  <si>
+    <t>10.12.2022</t>
+  </si>
+  <si>
+    <t>ООО «Транснефть – ТСД»</t>
+  </si>
+  <si>
+    <t>16.11.2022</t>
+  </si>
+  <si>
+    <t>21.11.2022</t>
+  </si>
+  <si>
+    <t>Эконом:7 Бизнес:7</t>
+  </si>
+  <si>
+    <t>Эконом:-669 Бизнес:28164</t>
+  </si>
+  <si>
+    <t>Эконом:5185 Бизнес:97218</t>
+  </si>
+  <si>
+    <t>ООО «СМАРТ ДИДЖИТАЛ»</t>
+  </si>
+  <si>
+    <t>15.11.2022</t>
+  </si>
+  <si>
+    <t>Эконом:13 Комфорт:2</t>
+  </si>
+  <si>
+    <t>Эконом:2414 Комфорт:468</t>
+  </si>
+  <si>
+    <t>Эконом:14481 Комфорт:2806</t>
+  </si>
+  <si>
+    <t>ООО «Керама Марацци»</t>
+  </si>
+  <si>
+    <t>14.11.2022</t>
+  </si>
+  <si>
+    <t>ООО "Спортмастер"</t>
+  </si>
+  <si>
+    <t>ООО «ФЭМЭЛИ»</t>
+  </si>
+  <si>
+    <t>10.11.2022</t>
+  </si>
+  <si>
+    <t>ООО "Проект ОМГ"</t>
+  </si>
+  <si>
+    <t>09.11.2022</t>
+  </si>
+  <si>
+    <t>02.01.2023</t>
+  </si>
+  <si>
+    <t>19.01.2023</t>
+  </si>
+  <si>
+    <t>Эконом:32</t>
+  </si>
+  <si>
+    <t>Эконом:2431</t>
+  </si>
+  <si>
+    <t>Эконом:19179</t>
+  </si>
+  <si>
+    <t>ООО "СПП" ("РЕГИОНАЛЬНАЯ СЕТЬ ПРЕДПРИЯТИЙ ПИТАНИЯ")</t>
+  </si>
+  <si>
+    <t>08.11.2022</t>
+  </si>
+  <si>
+    <t>Эконом:26</t>
+  </si>
+  <si>
+    <t>Эконом:542</t>
+  </si>
+  <si>
+    <t>ООО "НОВО НОРДИСК" (Тестовый кабинет)</t>
+  </si>
+  <si>
+    <t>07.11.2022</t>
+  </si>
+  <si>
+    <t>11.11.2022</t>
+  </si>
+  <si>
+    <t>ООО "Органик Гольф"</t>
+  </si>
+  <si>
+    <t>Эконом:170</t>
+  </si>
+  <si>
+    <t>Эконом:5226</t>
+  </si>
+  <si>
+    <t>Эконом:116454</t>
+  </si>
+  <si>
+    <t>ООО «АЗУР эйр»</t>
+  </si>
+  <si>
+    <t>03.11.2022</t>
+  </si>
+  <si>
+    <t>ООО "СК "МИР"</t>
+  </si>
+  <si>
+    <t>05.11.2022</t>
+  </si>
+  <si>
+    <t>26.01.2023</t>
+  </si>
+  <si>
+    <t>Эконом:91</t>
+  </si>
+  <si>
+    <t>Эконом:694</t>
+  </si>
+  <si>
+    <t>ООО "Гамма Телеком Строй"</t>
+  </si>
+  <si>
+    <t>12.11.2022</t>
+  </si>
+  <si>
+    <t>19.11.2022</t>
+  </si>
+  <si>
+    <t>ООО "Сити-Лайн"</t>
+  </si>
+  <si>
+    <t>05.12.2022</t>
+  </si>
+  <si>
+    <t>ООО Сперасофт Студия</t>
+  </si>
+  <si>
+    <t>02.11.2022</t>
+  </si>
+  <si>
+    <t>Эконом:10 Доставка:1 Комфорт+:3</t>
+  </si>
+  <si>
+    <t>Эконом:702 Доставка:167 Комфорт+:381</t>
+  </si>
+  <si>
+    <t>Эконом:8690 Доставка:1279 Комфорт+:2919</t>
+  </si>
+  <si>
+    <t>ООО "Стейдж Стэнд АП Клаб"</t>
+  </si>
+  <si>
+    <t>Миляев Александр</t>
+  </si>
+  <si>
+    <t>01.11.2022</t>
+  </si>
+  <si>
+    <t>ООО «СпецСтройЭксперт»</t>
+  </si>
+  <si>
+    <t>28.10.2022</t>
+  </si>
+  <si>
+    <t>Эконом:15</t>
+  </si>
+  <si>
+    <t>Эконом:1116</t>
+  </si>
+  <si>
+    <t>Эконом:12275</t>
+  </si>
+  <si>
+    <t>ООО "Озерки" (Ресторан Скотина)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ООО "Эбботт Лэбораториз" (тестовый)</t>
+  </si>
+  <si>
+    <t>27.10.2022</t>
+  </si>
+  <si>
+    <t>ООО «РБС-Групп»</t>
+  </si>
+  <si>
+    <t>26.10.2022</t>
+  </si>
+  <si>
+    <t>АО «ОКБ»</t>
+  </si>
+  <si>
+    <t>ООО "ПО"Победа"</t>
+  </si>
+  <si>
+    <t>21.10.2022</t>
+  </si>
+  <si>
+    <t>04.12.2022</t>
+  </si>
+  <si>
+    <t>ООО ПЭСК</t>
+  </si>
+  <si>
+    <t>ООО «Техногрупп»</t>
+  </si>
+  <si>
+    <t>20.10.2022</t>
+  </si>
+  <si>
+    <t>15.12.2022</t>
+  </si>
+  <si>
+    <t>Эконом:3 Комфорт:1</t>
+  </si>
+  <si>
+    <t>Эконом:246 Комфорт:239</t>
+  </si>
+  <si>
+    <t>Эконом:1884 Комфорт:1830</t>
+  </si>
+  <si>
+    <t>ООО "Интурмаркет Бизнес Тревел"</t>
+  </si>
+  <si>
+    <t>ООО «СОЛНЕЧНЫЙ СВЕТ»/САНЛАЙТ/Sunlight</t>
+  </si>
+  <si>
+    <t>18.10.2022</t>
+  </si>
+  <si>
+    <t>Эконом:198</t>
+  </si>
+  <si>
+    <t>Эконом:5493</t>
+  </si>
+  <si>
+    <t>Эконом:66737</t>
+  </si>
+  <si>
+    <t>ООО «ФинЭкспертиза»</t>
+  </si>
+  <si>
+    <t>17.10.2022</t>
+  </si>
+  <si>
+    <t>ООО «Ногай»</t>
+  </si>
+  <si>
+    <t>13.10.2022</t>
+  </si>
+  <si>
+    <t>Эконом:9</t>
+  </si>
+  <si>
+    <t>Эконом:790</t>
+  </si>
+  <si>
+    <t>Эконом:6053</t>
+  </si>
+  <si>
+    <t>ООО "ПГП" ("ПромГражданПроект")</t>
+  </si>
+  <si>
+    <t>12.10.2022</t>
+  </si>
+  <si>
+    <t>ООО «РАЗВИТИЕ» (Центр Долевого Строительства)</t>
+  </si>
+  <si>
+    <t>11.10.2022</t>
+  </si>
+  <si>
+    <t>19.10.2022</t>
+  </si>
+  <si>
+    <t>ООО «Кококутюр»</t>
+  </si>
+  <si>
+    <t>ООО "Форматта"</t>
+  </si>
+  <si>
+    <t>ОАО "ТД ЦУМ"</t>
+  </si>
+  <si>
     <t>29.01.2023</t>
   </si>
   <si>
-    <t>Эконом:20 Комфорт:7 Комфорт+:8</t>
-  </si>
-  <si>
-    <t>Эконом:526 Комфорт:219 Комфорт+:415</t>
-  </si>
-  <si>
-    <t>Эконом:11026 Комфорт:4597 Комфорт+:8715</t>
-  </si>
-  <si>
-    <t>ООО "Керама Центр"</t>
-  </si>
-  <si>
-    <t>Осипова Елена</t>
-  </si>
-  <si>
-    <t>18.01.2023</t>
-  </si>
-  <si>
-    <t>ООО «Автоматика-Сервис»</t>
-  </si>
-  <si>
-    <t>09.01.2023</t>
-  </si>
-  <si>
-    <t>10.01.2023</t>
-  </si>
-  <si>
-    <t>Эконом:53 Комфорт:30 Бизнес:2</t>
-  </si>
-  <si>
-    <t>Эконом:10145 Комфорт:20296 Бизнес:1704</t>
-  </si>
-  <si>
-    <t>Эконом:54441 Комфорт:63723 Бизнес:4814</t>
-  </si>
-  <si>
-    <t>ООО «ЗСА продакшн»</t>
-  </si>
-  <si>
-    <t>30.12.2022</t>
-  </si>
-  <si>
-    <t>ООО «РТКлауд»</t>
-  </si>
-  <si>
-    <t>29.12.2022</t>
-  </si>
-  <si>
-    <t>ООО "Телеком XXI Век"</t>
-  </si>
-  <si>
-    <t>Эконом:0</t>
-  </si>
-  <si>
-    <t>Слишком большое время ожидания:1</t>
-  </si>
-  <si>
-    <t>ООО "Романтика"/ Пиццерия Пермь</t>
-  </si>
-  <si>
-    <t>19.12.2022</t>
-  </si>
-  <si>
-    <t>22.12.2022</t>
-  </si>
-  <si>
-    <t>Эконом:83 Комфорт+:1</t>
-  </si>
-  <si>
-    <t>Эконом:1757 Комфорт+:41</t>
-  </si>
-  <si>
-    <t>Эконом:36897 Комфорт+:853</t>
-  </si>
-  <si>
-    <t>ООО «Даер Рус»</t>
-  </si>
-  <si>
-    <t>14.12.2022</t>
-  </si>
-  <si>
-    <t>ООО "Котэс"</t>
-  </si>
-  <si>
-    <t>08.12.2022</t>
-  </si>
-  <si>
-    <t>13.12.2022</t>
-  </si>
-  <si>
-    <t>Эконом:1</t>
-  </si>
-  <si>
-    <t>Эконом:57</t>
-  </si>
-  <si>
-    <t>Эконом:340</t>
-  </si>
-  <si>
-    <t>тестовый кабинет (удалить)</t>
-  </si>
-  <si>
-    <t>07.12.2022</t>
-  </si>
-  <si>
-    <t>ООО «ЛБС Международные конференции»</t>
-  </si>
-  <si>
-    <t>Шевцов Максим</t>
-  </si>
-  <si>
-    <t>06.12.2022</t>
-  </si>
-  <si>
-    <t>ООО «Газпромнефть-ЦР» (ДЦИ)</t>
-  </si>
-  <si>
-    <t>12.01.2023</t>
-  </si>
-  <si>
-    <t>Эконом:504</t>
-  </si>
-  <si>
-    <t>Эконом:1202</t>
-  </si>
-  <si>
-    <t>ООО «Газпромнефть-ЦР» (1С)</t>
-  </si>
-  <si>
-    <t>ООО «Газпромнефть-ЦР» (ДРиД)</t>
-  </si>
-  <si>
-    <t>02.12.2022</t>
-  </si>
-  <si>
-    <t>ООО «Газпромнефть-ЦР» (ДПС)</t>
-  </si>
-  <si>
-    <t>27.01.2023</t>
-  </si>
-  <si>
-    <t>Эконом:21 Комфорт:18 Бизнес:12</t>
-  </si>
-  <si>
-    <t>Эконом:8165 Комфорт:14047 Бизнес:2785</t>
-  </si>
-  <si>
-    <t>Эконом:18187 Комфорт:29917 Бизнес:13032</t>
-  </si>
-  <si>
-    <t>ООО «Газпромнефть-ЦР» (ДИБ)</t>
-  </si>
-  <si>
-    <t>ООО «Газпромнефть-ЦР» (ДКФ)</t>
-  </si>
-  <si>
-    <t>Эконом:20 Комфорт:25</t>
-  </si>
-  <si>
-    <t>Эконом:3995 Комфорт:17236</t>
-  </si>
-  <si>
-    <t>Эконом:9730 Комфорт:41370</t>
-  </si>
-  <si>
-    <t>ООО «Газпромнефть-ЦР» (ДППУ)</t>
-  </si>
-  <si>
-    <t>ООО «Газпромнефть-ЦР» (ДИР)</t>
-  </si>
-  <si>
-    <t>ООО «Газпромнефть-ЦР» (ДРП)</t>
-  </si>
-  <si>
-    <t>ООО «Газпромнефть-ЦР» (ДПР)</t>
-  </si>
-  <si>
-    <t>АО "ХС-Наука"</t>
-  </si>
-  <si>
-    <t>09.12.2022</t>
-  </si>
-  <si>
-    <t>Эконом:2</t>
-  </si>
-  <si>
-    <t>Эконом:168</t>
-  </si>
-  <si>
-    <t>Эконом:1283</t>
-  </si>
-  <si>
-    <t>ООО «Газпромнефть-ЦР» (ДКР)</t>
-  </si>
-  <si>
-    <t>28.12.2022</t>
-  </si>
-  <si>
-    <t>ГБУЗ "НКМЦ им А.С. Логинова"</t>
-  </si>
-  <si>
-    <t>Бутова Светлана</t>
-  </si>
-  <si>
-    <t>01.12.2022</t>
-  </si>
-  <si>
-    <t>18.12.2022</t>
-  </si>
-  <si>
-    <t>ООО «Газпромнефть-ЦР» (ЦА)</t>
-  </si>
-  <si>
-    <t>29.11.2022</t>
-  </si>
-  <si>
-    <t>Бизнес:1</t>
-  </si>
-  <si>
-    <t>Бизнес:176</t>
-  </si>
-  <si>
-    <t>Бизнес:806</t>
-  </si>
-  <si>
-    <t>ООО "МД-Групп"</t>
-  </si>
-  <si>
-    <t>28.11.2022</t>
-  </si>
-  <si>
-    <t>28.01.2023</t>
-  </si>
-  <si>
-    <t>Эконом:11</t>
-  </si>
-  <si>
-    <t>Эконом:249</t>
-  </si>
-  <si>
-    <t>Эконом:5213</t>
-  </si>
-  <si>
-    <t>Заказал по ошибке:1</t>
-  </si>
-  <si>
-    <t>ГКУ Новые технологии управления</t>
-  </si>
-  <si>
-    <t>25.11.2022</t>
-  </si>
-  <si>
-    <t>Комфорт:71 Комфорт+:2</t>
-  </si>
-  <si>
-    <t>Комфорт:5020 Комфорт+:-460</t>
-  </si>
-  <si>
-    <t>Комфорт:52814 Комфорт+:1620</t>
-  </si>
-  <si>
-    <t>ООО "БалтТрансСервис"</t>
-  </si>
-  <si>
-    <t>Батыгин Антон</t>
-  </si>
-  <si>
-    <t>22.11.2022</t>
-  </si>
-  <si>
-    <t>24.11.2022</t>
-  </si>
-  <si>
-    <t>Эконом:3</t>
-  </si>
-  <si>
-    <t>Эконом:204 Комфорт:0</t>
-  </si>
-  <si>
-    <t>Эконом:1559 Комфорт:0</t>
-  </si>
-  <si>
-    <t>ООО ”Компания Выставочные материалы”</t>
-  </si>
-  <si>
-    <t>17.11.2022</t>
-  </si>
-  <si>
-    <t>10.12.2022</t>
-  </si>
-  <si>
-    <t>ООО «Транснефть – ТСД»</t>
-  </si>
-  <si>
-    <t>16.11.2022</t>
-  </si>
-  <si>
-    <t>21.11.2022</t>
-  </si>
-  <si>
-    <t>Эконом:7 Бизнес:7</t>
-  </si>
-  <si>
-    <t>Эконом:-669 Бизнес:28164</t>
-  </si>
-  <si>
-    <t>Эконом:5185 Бизнес:97218</t>
-  </si>
-  <si>
-    <t>ООО «СМАРТ ДИДЖИТАЛ»</t>
-  </si>
-  <si>
-    <t>15.11.2022</t>
-  </si>
-  <si>
-    <t>Эконом:13 Комфорт:2</t>
-  </si>
-  <si>
-    <t>Эконом:2414 Комфорт:468</t>
-  </si>
-  <si>
-    <t>Эконом:14481 Комфорт:2806</t>
-  </si>
-  <si>
-    <t>ООО «Керама Марацци»</t>
-  </si>
-  <si>
-    <t>14.11.2022</t>
-  </si>
-  <si>
-    <t>ООО "Спортмастер"</t>
-  </si>
-  <si>
-    <t>ООО «ФЭМЭЛИ»</t>
-  </si>
-  <si>
-    <t>10.11.2022</t>
-  </si>
-  <si>
-    <t>ООО "Проект ОМГ"</t>
-  </si>
-  <si>
-    <t>09.11.2022</t>
-  </si>
-  <si>
-    <t>02.01.2023</t>
-  </si>
-  <si>
-    <t>19.01.2023</t>
-  </si>
-  <si>
-    <t>Эконом:32</t>
-  </si>
-  <si>
-    <t>Эконом:2431</t>
-  </si>
-  <si>
-    <t>Эконом:19179</t>
-  </si>
-  <si>
-    <t>ООО "СПП" ("РЕГИОНАЛЬНАЯ СЕТЬ ПРЕДПРИЯТИЙ ПИТАНИЯ")</t>
-  </si>
-  <si>
-    <t>08.11.2022</t>
-  </si>
-  <si>
-    <t>Эконом:26</t>
-  </si>
-  <si>
-    <t>Эконом:542</t>
-  </si>
-  <si>
-    <t>ООО "НОВО НОРДИСК" (Тестовый кабинет)</t>
-  </si>
-  <si>
-    <t>07.11.2022</t>
-  </si>
-  <si>
-    <t>11.11.2022</t>
-  </si>
-  <si>
-    <t>ООО "Органик Гольф"</t>
-  </si>
-  <si>
-    <t>Эконом:162</t>
-  </si>
-  <si>
-    <t>Эконом:4965</t>
-  </si>
-  <si>
-    <t>Эконом:110977</t>
-  </si>
-  <si>
-    <t>ООО «АЗУР эйр»</t>
-  </si>
-  <si>
-    <t>03.11.2022</t>
-  </si>
-  <si>
-    <t>ООО "СК "МИР"</t>
-  </si>
-  <si>
-    <t>05.11.2022</t>
-  </si>
-  <si>
-    <t>26.01.2023</t>
-  </si>
-  <si>
-    <t>Эконом:91</t>
-  </si>
-  <si>
-    <t>Эконом:694</t>
-  </si>
-  <si>
-    <t>ООО "Гамма Телеком Строй"</t>
-  </si>
-  <si>
-    <t>12.11.2022</t>
-  </si>
-  <si>
-    <t>19.11.2022</t>
-  </si>
-  <si>
-    <t>ООО "Сити-Лайн"</t>
-  </si>
-  <si>
-    <t>05.12.2022</t>
-  </si>
-  <si>
-    <t>ООО Сперасофт Студия</t>
-  </si>
-  <si>
-    <t>02.11.2022</t>
-  </si>
-  <si>
-    <t>Эконом:10 Доставка:1 Комфорт+:3</t>
-  </si>
-  <si>
-    <t>Эконом:702 Доставка:167 Комфорт+:381</t>
-  </si>
-  <si>
-    <t>Эконом:8690 Доставка:1279 Комфорт+:2919</t>
-  </si>
-  <si>
-    <t>ООО "Стейдж Стэнд АП Клаб"</t>
-  </si>
-  <si>
-    <t>Миляев Александр</t>
-  </si>
-  <si>
-    <t>01.11.2022</t>
-  </si>
-  <si>
-    <t>ООО «СпецСтройЭксперт»</t>
-  </si>
-  <si>
-    <t>28.10.2022</t>
-  </si>
-  <si>
-    <t>Эконом:15</t>
-  </si>
-  <si>
-    <t>Эконом:1116</t>
-  </si>
-  <si>
-    <t>Эконом:12275</t>
-  </si>
-  <si>
-    <t>ООО "Озерки" (Ресторан Скотина)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ООО "Эбботт Лэбораториз" (тестовый)</t>
-  </si>
-  <si>
-    <t>27.10.2022</t>
-  </si>
-  <si>
-    <t>ООО «РБС-Групп»</t>
-  </si>
-  <si>
-    <t>26.10.2022</t>
-  </si>
-  <si>
-    <t>АО «ОКБ»</t>
-  </si>
-  <si>
-    <t>ООО "ПО"Победа"</t>
-  </si>
-  <si>
-    <t>21.10.2022</t>
-  </si>
-  <si>
-    <t>04.12.2022</t>
-  </si>
-  <si>
-    <t>ООО ПЭСК</t>
-  </si>
-  <si>
-    <t>ООО «Техногрупп»</t>
-  </si>
-  <si>
-    <t>20.10.2022</t>
-  </si>
-  <si>
-    <t>15.12.2022</t>
-  </si>
-  <si>
-    <t>Эконом:3 Комфорт:1</t>
-  </si>
-  <si>
-    <t>Эконом:246 Комфорт:239</t>
-  </si>
-  <si>
-    <t>Эконом:1884 Комфорт:1830</t>
-  </si>
-  <si>
-    <t>ООО "Интурмаркет Бизнес Тревел"</t>
-  </si>
-  <si>
-    <t>ООО «СОЛНЕЧНЫЙ СВЕТ»/САНЛАЙТ/Sunlight</t>
-  </si>
-  <si>
-    <t>18.10.2022</t>
-  </si>
-  <si>
-    <t>Эконом:192</t>
-  </si>
-  <si>
-    <t>Эконом:5306</t>
-  </si>
-  <si>
-    <t>Эконом:64683</t>
-  </si>
-  <si>
-    <t>ООО «ФинЭкспертиза»</t>
-  </si>
-  <si>
-    <t>17.10.2022</t>
-  </si>
-  <si>
-    <t>ООО «Ногай»</t>
-  </si>
-  <si>
-    <t>13.10.2022</t>
-  </si>
-  <si>
-    <t>Эконом:9</t>
-  </si>
-  <si>
-    <t>Эконом:790</t>
-  </si>
-  <si>
-    <t>Эконом:6053</t>
-  </si>
-  <si>
-    <t>ООО "ПГП" ("ПромГражданПроект")</t>
-  </si>
-  <si>
-    <t>12.10.2022</t>
-  </si>
-  <si>
-    <t>ООО «РАЗВИТИЕ» (Центр Долевого Строительства)</t>
-  </si>
-  <si>
-    <t>11.10.2022</t>
-  </si>
-  <si>
-    <t>19.10.2022</t>
-  </si>
-  <si>
-    <t>ООО «Кококутюр»</t>
-  </si>
-  <si>
-    <t>ООО "Форматта"</t>
-  </si>
-  <si>
-    <t>ОАО "ТД ЦУМ"</t>
-  </si>
-  <si>
-    <t>Эконом:27</t>
-  </si>
-  <si>
-    <t>Эконом:2176</t>
-  </si>
-  <si>
-    <t>Эконом:19132</t>
+    <t>Эконом:28</t>
+  </si>
+  <si>
+    <t>Эконом:2232</t>
+  </si>
+  <si>
+    <t>Эконом:19559</t>
   </si>
   <si>
     <t>АО АК "Нордстар" (Тестовый личный кабинет)</t>
@@ -763,13 +769,13 @@
     <t>08.10.2022</t>
   </si>
   <si>
-    <t>Эконом:81</t>
-  </si>
-  <si>
-    <t>Эконом:9326</t>
-  </si>
-  <si>
-    <t>Эконом:80057</t>
+    <t>Эконом:85</t>
+  </si>
+  <si>
+    <t>Эконом:9594</t>
+  </si>
+  <si>
+    <t>Эконом:83797</t>
   </si>
   <si>
     <t>Водитель попросил отменить заказ:1 Заказал по ошибке:2 Слишком большое время ожидания:6</t>
@@ -871,13 +877,13 @@
     <t>15.10.2022</t>
   </si>
   <si>
-    <t>Эконом:41 Комфорт:1</t>
-  </si>
-  <si>
-    <t>Эконом:5690 Комфорт:54</t>
-  </si>
-  <si>
-    <t>Эконом:45575 Комфорт:414</t>
+    <t>Эконом:45 Комфорт:1</t>
+  </si>
+  <si>
+    <t>Эконом:6268 Комфорт:54</t>
+  </si>
+  <si>
+    <t>Эконом:50008 Комфорт:414</t>
   </si>
   <si>
     <t>ООО "Центр Пэт-Технолоджи"</t>
@@ -898,633 +904,630 @@
     <t>АК Россия руководство</t>
   </si>
   <si>
-    <t>Эконом:9 Комфорт:1 Бизнес:29 Комфорт+:69</t>
-  </si>
-  <si>
-    <t>Эконом:6523 Комфорт:459 Бизнес:25073 Комфорт+:19343</t>
-  </si>
-  <si>
-    <t>Эконом:15390 Комфорт:1536 Бизнес:81147 Комфорт+:134284</t>
+    <t>Эконом:10 Комфорт:1 Бизнес:29 Комфорт+:69</t>
+  </si>
+  <si>
+    <t>Эконом:6894 Комфорт:459 Бизнес:25073 Комфорт+:19343</t>
+  </si>
+  <si>
+    <t>Эконом:17380 Комфорт:1536 Бизнес:81147 Комфорт+:134284</t>
   </si>
   <si>
     <t>ООО «КОРФ»</t>
   </si>
   <si>
+    <t>Эконом:5 Комфорт:1 Комфорт+:1</t>
+  </si>
+  <si>
+    <t>Эконом:654 Комфорт:366 Бизнес:0 Комфорт+:356</t>
+  </si>
+  <si>
+    <t>Эконом:5012 Комфорт:2805 Бизнес:0 Комфорт+:2728</t>
+  </si>
+  <si>
+    <t>Нашёл другое такси:1</t>
+  </si>
+  <si>
+    <t>ООО «РРК Групп»</t>
+  </si>
+  <si>
+    <t>14.09.2022</t>
+  </si>
+  <si>
+    <t>ООО «Интегро»</t>
+  </si>
+  <si>
+    <t>08.09.2022</t>
+  </si>
+  <si>
+    <t>ООО «Ничего Лишнего»</t>
+  </si>
+  <si>
+    <t>07.09.2022</t>
+  </si>
+  <si>
+    <t>Эконом:166 Комфорт:1</t>
+  </si>
+  <si>
+    <t>Эконом:8506 Комфорт:56</t>
+  </si>
+  <si>
+    <t>Эконом:129439 Комфорт:611</t>
+  </si>
+  <si>
+    <t>ООО «ЭКВАТУР»</t>
+  </si>
+  <si>
+    <t>Тестовый кабинет (для презентаций)</t>
+  </si>
+  <si>
+    <t>Башмачников Артем</t>
+  </si>
+  <si>
+    <t>ООО "ИТЦ Юниверсум"</t>
+  </si>
+  <si>
+    <t>05.09.2022</t>
+  </si>
+  <si>
+    <t>ООО ТЭМК «Эмпос»</t>
+  </si>
+  <si>
+    <t>01.09.2022</t>
+  </si>
+  <si>
+    <t>ООО «Кронекер»</t>
+  </si>
+  <si>
+    <t>03.09.2022</t>
+  </si>
+  <si>
+    <t>ООО «Маттел»</t>
+  </si>
+  <si>
+    <t>31.08.2022</t>
+  </si>
+  <si>
+    <t>Комфорт:7 Комфорт+:2</t>
+  </si>
+  <si>
+    <t>Комфорт:2955 Комфорт+:2647</t>
+  </si>
+  <si>
+    <t>Комфорт:14933 Комфорт+:4364</t>
+  </si>
+  <si>
+    <t>ООО «Метро Кэш энд Керри» 1017</t>
+  </si>
+  <si>
+    <t>31.10.2022</t>
+  </si>
+  <si>
+    <t>ИП Екатеренчук</t>
+  </si>
+  <si>
+    <t>30.08.2022</t>
+  </si>
+  <si>
+    <t>02.09.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Сазонова </t>
+  </si>
+  <si>
+    <t>ООО Таврида Электрик Поволжье</t>
+  </si>
+  <si>
+    <t>OOO "ВЕБЕР ЛАБС"</t>
+  </si>
+  <si>
+    <t>25.08.2022</t>
+  </si>
+  <si>
+    <t>26.08.2022</t>
+  </si>
+  <si>
+    <t>АО «Брейнсторм Медиа»</t>
+  </si>
+  <si>
+    <t>ООО «Кредо Продакшен»</t>
+  </si>
+  <si>
+    <t>20.01.2023</t>
+  </si>
+  <si>
+    <t>Комфорт+:27</t>
+  </si>
+  <si>
+    <t>Комфорт+:4886</t>
+  </si>
+  <si>
+    <t>Комфорт+:30732</t>
+  </si>
+  <si>
+    <t>ООО "Селектел" (Тестовый)</t>
+  </si>
+  <si>
+    <t>АО Тойота Банк</t>
+  </si>
+  <si>
+    <t>22.08.2022</t>
+  </si>
+  <si>
+    <t>КИЭМ (ООО «Клинический институт эстетической медицины»)</t>
+  </si>
+  <si>
+    <t>19.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО Инттехно </t>
+  </si>
+  <si>
+    <t>12.08.2022</t>
+  </si>
+  <si>
+    <t>ООО Нордекс</t>
+  </si>
+  <si>
+    <t>10.08.2022</t>
+  </si>
+  <si>
+    <t>ООО МЕДИАПОИНТ</t>
+  </si>
+  <si>
+    <t>29.08.2022</t>
+  </si>
+  <si>
+    <t>Эконом:1 Доставка:3</t>
+  </si>
+  <si>
+    <t>Эконом:80 Доставка:625</t>
+  </si>
+  <si>
+    <t>Эконом:613 Доставка:4789</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>05.08.2022</t>
+  </si>
+  <si>
+    <t>ООО «Строганов Групп»</t>
+  </si>
+  <si>
+    <t>06.08.2022</t>
+  </si>
+  <si>
+    <t>Спрингер Нэйчер Лимитед</t>
+  </si>
+  <si>
+    <t>11.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО Люче </t>
+  </si>
+  <si>
+    <t>04.08.2022</t>
+  </si>
+  <si>
+    <t>22.09.2022</t>
+  </si>
+  <si>
+    <t>Тестовый кабинет для B2B клиентов</t>
+  </si>
+  <si>
+    <t>29.07.2022</t>
+  </si>
+  <si>
+    <t>ООО Спортмастер (Тестовый)</t>
+  </si>
+  <si>
+    <t>28.07.2022</t>
+  </si>
+  <si>
+    <t>МОСКОВСКИЕ РЕСТОРАННЫЕ ТЕХНОЛОГИИ (Ресторан Магадан)</t>
+  </si>
+  <si>
+    <t>ООО Интер РАО ОНЛАЙН</t>
+  </si>
+  <si>
+    <t>Комфорт:4 Комфорт+:2</t>
+  </si>
+  <si>
+    <t>Комфорт:668 Комфорт+:906</t>
+  </si>
+  <si>
+    <t>Комфорт:9420 Комфорт+:7277</t>
+  </si>
+  <si>
+    <t>ООО Лик Форсайд (тестовый кабинет)</t>
+  </si>
+  <si>
+    <t>27.07.2022</t>
+  </si>
+  <si>
+    <t>АО Точка (тестовый кабинет)</t>
+  </si>
+  <si>
+    <t>Бровкин Евгений</t>
+  </si>
+  <si>
+    <t>25.07.2022</t>
+  </si>
+  <si>
+    <t>ООО "ЦБМ и П" (Eclinic)</t>
+  </si>
+  <si>
+    <t>Эконом:142</t>
+  </si>
+  <si>
+    <t>Эконом:396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перно Рикар </t>
+  </si>
+  <si>
+    <t>12.07.2022</t>
+  </si>
+  <si>
+    <t>ООО ЭрСиСи</t>
+  </si>
+  <si>
+    <t>08.07.2022</t>
+  </si>
+  <si>
+    <t>14.07.2022</t>
+  </si>
+  <si>
+    <t>Эконом:14</t>
+  </si>
+  <si>
+    <t>Эконом:2760</t>
+  </si>
+  <si>
+    <t>Эконом:21160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО Где Хлеб </t>
+  </si>
+  <si>
+    <t>ООО Студия ЦТ</t>
+  </si>
+  <si>
+    <t>БэстПрайс</t>
+  </si>
+  <si>
+    <t>09.07.2022</t>
+  </si>
+  <si>
+    <t>Эконом:98</t>
+  </si>
+  <si>
+    <t>Эконом:-1585</t>
+  </si>
+  <si>
+    <t>Эконом:33095</t>
+  </si>
+  <si>
+    <t>Водитель попросил отменить заказ:1 Другое:1 Заказал по ошибке:2 Слишком большое время ожидания:5</t>
+  </si>
+  <si>
+    <t>ООО Инвест АГ</t>
+  </si>
+  <si>
+    <t>07.07.2022</t>
+  </si>
+  <si>
+    <t>ЗАО Канонфарма Продакшн</t>
+  </si>
+  <si>
+    <t>Делимобиль</t>
+  </si>
+  <si>
+    <t>Ханмамедов Мурад</t>
+  </si>
+  <si>
+    <t>ООО Купишуз/Ламода (Тестовый)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО Серджикс </t>
+  </si>
+  <si>
+    <t>06.07.2022</t>
+  </si>
+  <si>
+    <t>ООО Эссити</t>
+  </si>
+  <si>
+    <t>АО «Деловые Решения и Технологии»</t>
+  </si>
+  <si>
+    <t>05.07.2022</t>
+  </si>
+  <si>
+    <t>ООО "Мак-Кинзи" (Тестовый)</t>
+  </si>
+  <si>
+    <t>ООО Эстоль</t>
+  </si>
+  <si>
+    <t>Эконом:83</t>
+  </si>
+  <si>
+    <t>Эконом:1110 Комфорт:0</t>
+  </si>
+  <si>
+    <t>Эконом:25293 Комфорт:0</t>
+  </si>
+  <si>
+    <t>Тестовая</t>
+  </si>
+  <si>
+    <t>29.06.2022</t>
+  </si>
+  <si>
+    <t>ООО ЮНИМ</t>
+  </si>
+  <si>
+    <t>21.12.2022</t>
+  </si>
+  <si>
+    <t>ООО "КФС СТРИТ РЕСТОРАНТС" (Тестовый)</t>
+  </si>
+  <si>
+    <t>28.06.2022</t>
+  </si>
+  <si>
+    <t>АО Вертолетная Сервисная Компания</t>
+  </si>
+  <si>
+    <t>30.06.2022</t>
+  </si>
+  <si>
+    <t>Эконом:55 Комфорт:67</t>
+  </si>
+  <si>
+    <t>Эконом:3329 Комфорт:3439</t>
+  </si>
+  <si>
+    <t>Эконом:51935 Комфорт:95939</t>
+  </si>
+  <si>
+    <t>ООО Вега-Вега</t>
+  </si>
+  <si>
+    <t>11.07.2022</t>
+  </si>
+  <si>
+    <t>Технологии доверия</t>
+  </si>
+  <si>
+    <t>01.07.2022</t>
+  </si>
+  <si>
+    <t>03.08.2022</t>
+  </si>
+  <si>
+    <t>ООО «ЛЕГЕНДА СМАРТ»</t>
+  </si>
+  <si>
+    <t>23.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО Господин Печатник </t>
+  </si>
+  <si>
+    <t>21.06.2022</t>
+  </si>
+  <si>
+    <t>ООО "АлексГрупп"</t>
+  </si>
+  <si>
+    <t>Премиум:0</t>
+  </si>
+  <si>
+    <t>ООО БФА-Строй</t>
+  </si>
+  <si>
+    <t>ООО БФА-Монолит</t>
+  </si>
+  <si>
+    <t>ООО Свон</t>
+  </si>
+  <si>
+    <t>22.06.2022</t>
+  </si>
+  <si>
+    <t>ПАО Группа Ренессанс Страхование</t>
+  </si>
+  <si>
+    <t>15.06.2022</t>
+  </si>
+  <si>
+    <t>27.06.2022</t>
+  </si>
+  <si>
+    <t>ООО ВетЦентрСТ</t>
+  </si>
+  <si>
+    <t>14.06.2022</t>
+  </si>
+  <si>
+    <t>18.06.2022</t>
+  </si>
+  <si>
+    <t>Эконом:11 Комфорт:7 Комфорт+:4</t>
+  </si>
+  <si>
+    <t>Эконом:869 Комфорт:540 Комфорт+:665</t>
+  </si>
+  <si>
+    <t>Эконом:9555 Комфорт:5931 Комфорт+:7314</t>
+  </si>
+  <si>
+    <t>Заказал по ошибке:2 Нашёл другое такси:1 Слишком большое время ожидания:1</t>
+  </si>
+  <si>
+    <t>ООО Джаст Кутюр М</t>
+  </si>
+  <si>
+    <t>10.06.2022</t>
+  </si>
+  <si>
+    <t>Эконом:5375</t>
+  </si>
+  <si>
+    <t>Эконом:33398</t>
+  </si>
+  <si>
+    <t>ООО ГХХ Фарцойге</t>
+  </si>
+  <si>
+    <t>26.06.2022</t>
+  </si>
+  <si>
+    <t>САО ВСК</t>
+  </si>
+  <si>
+    <t>ООО АльфаТЭК</t>
+  </si>
+  <si>
+    <t>ООО Монгер</t>
+  </si>
+  <si>
+    <t>Winterberg Group ООО «Сингулар СиАйЭс»</t>
+  </si>
+  <si>
+    <t>02.06.2022</t>
+  </si>
+  <si>
+    <t>06.06.2022</t>
+  </si>
+  <si>
+    <t>Эконом:1 Комфорт:9 Доставка:3 Комфорт+:37</t>
+  </si>
+  <si>
+    <t>Эконом:115 Комфорт:784 Доставка:269 Комфорт+:5153</t>
+  </si>
+  <si>
+    <t>Эконом:880 Комфорт:6009 Доставка:2060 Комфорт+:39500</t>
+  </si>
+  <si>
+    <t>ООО ТК Витал ЕВВ</t>
+  </si>
+  <si>
+    <t>07.06.2022</t>
+  </si>
+  <si>
+    <t>Эконом:505</t>
+  </si>
+  <si>
+    <t>ООО Главстрой СПб</t>
+  </si>
+  <si>
+    <t>ООО Швабе Фарма Раша</t>
+  </si>
+  <si>
+    <t>01.06.2022</t>
+  </si>
+  <si>
+    <t>17.06.2022</t>
+  </si>
+  <si>
+    <t>Эконом:0 Доставка:0</t>
+  </si>
+  <si>
+    <t>АНО НАМП</t>
+  </si>
+  <si>
+    <t>03.06.2022</t>
+  </si>
+  <si>
+    <t>ООО ГАСТРО ФЭМИЛИ</t>
+  </si>
+  <si>
+    <t>19.06.2022</t>
+  </si>
+  <si>
+    <t>Фонд развития промышленности</t>
+  </si>
+  <si>
+    <t>31.05.2022</t>
+  </si>
+  <si>
+    <t>Эконом:167 Комфорт:17 Бизнес:19 Комфорт+:9</t>
+  </si>
+  <si>
+    <t>Эконом:29562 Комфорт:3104 Бизнес:14937 Комфорт+:1945</t>
+  </si>
+  <si>
+    <t>Эконом:134495 Комфорт:17003 Бизнес:37755 Комфорт+:8902</t>
+  </si>
+  <si>
+    <t>ООО Фитобиотикс Рус</t>
+  </si>
+  <si>
+    <t>ООО Видеолайн</t>
+  </si>
+  <si>
+    <t>30.05.2022</t>
+  </si>
+  <si>
+    <t>Эконом:302</t>
+  </si>
+  <si>
+    <t>Эконом:23039</t>
+  </si>
+  <si>
+    <t>Эконом:71768</t>
+  </si>
+  <si>
+    <t>ООО Валио</t>
+  </si>
+  <si>
+    <t>ООО Шанс</t>
+  </si>
+  <si>
+    <t>27.05.2022</t>
+  </si>
+  <si>
+    <t>ООО Корнайс</t>
+  </si>
+  <si>
+    <t>04.06.2022</t>
+  </si>
+  <si>
+    <t>07.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО Котлета </t>
+  </si>
+  <si>
+    <t>26.05.2022</t>
+  </si>
+  <si>
+    <t>ООО Алфарма</t>
+  </si>
+  <si>
+    <t>21.08.2022</t>
+  </si>
+  <si>
+    <t>ООО ЛАНСЭЙЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ланит </t>
+  </si>
+  <si>
+    <t>24.05.2022</t>
+  </si>
+  <si>
+    <t>РС Управление Инвестициями</t>
+  </si>
+  <si>
     <t>24.01.2023</t>
   </si>
   <si>
-    <t>Эконом:5 Комфорт:1 Комфорт+:1</t>
-  </si>
-  <si>
-    <t>Эконом:654 Комфорт:366 Бизнес:0 Комфорт+:356</t>
-  </si>
-  <si>
-    <t>Эконом:5012 Комфорт:2805 Бизнес:0 Комфорт+:2728</t>
-  </si>
-  <si>
-    <t>Нашёл другое такси:1</t>
-  </si>
-  <si>
-    <t>ООО «РРК Групп»</t>
-  </si>
-  <si>
-    <t>14.09.2022</t>
-  </si>
-  <si>
-    <t>ООО «Интегро»</t>
-  </si>
-  <si>
-    <t>08.09.2022</t>
-  </si>
-  <si>
-    <t>ООО «Ничего Лишнего»</t>
-  </si>
-  <si>
-    <t>07.09.2022</t>
-  </si>
-  <si>
-    <t>Эконом:157 Комфорт:1</t>
-  </si>
-  <si>
-    <t>Эконом:7960 Комфорт:56</t>
-  </si>
-  <si>
-    <t>Эконом:123438 Комфорт:611</t>
-  </si>
-  <si>
-    <t>ООО «ЭКВАТУР»</t>
-  </si>
-  <si>
-    <t>Тестовый кабинет (для презентаций)</t>
-  </si>
-  <si>
-    <t>Башмачников Артем</t>
-  </si>
-  <si>
-    <t>ООО "ИТЦ Юниверсум"</t>
-  </si>
-  <si>
-    <t>05.09.2022</t>
-  </si>
-  <si>
-    <t>ООО ТЭМК «Эмпос»</t>
-  </si>
-  <si>
-    <t>01.09.2022</t>
-  </si>
-  <si>
-    <t>ООО «Кронекер»</t>
-  </si>
-  <si>
-    <t>03.09.2022</t>
-  </si>
-  <si>
-    <t>ООО «Маттел»</t>
-  </si>
-  <si>
-    <t>31.08.2022</t>
-  </si>
-  <si>
-    <t>Комфорт:7 Комфорт+:2</t>
-  </si>
-  <si>
-    <t>Комфорт:2955 Комфорт+:2647</t>
-  </si>
-  <si>
-    <t>Комфорт:14933 Комфорт+:4364</t>
-  </si>
-  <si>
-    <t>ООО «Метро Кэш энд Керри» 1017</t>
-  </si>
-  <si>
-    <t>31.10.2022</t>
-  </si>
-  <si>
-    <t>ИП Екатеренчук</t>
-  </si>
-  <si>
-    <t>30.08.2022</t>
-  </si>
-  <si>
-    <t>02.09.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИП Сазонова </t>
-  </si>
-  <si>
-    <t>ООО Таврида Электрик Поволжье</t>
-  </si>
-  <si>
-    <t>OOO "ВЕБЕР ЛАБС"</t>
-  </si>
-  <si>
-    <t>25.08.2022</t>
-  </si>
-  <si>
-    <t>26.08.2022</t>
-  </si>
-  <si>
-    <t>АО «Брейнсторм Медиа»</t>
-  </si>
-  <si>
-    <t>ООО «Кредо Продакшен»</t>
-  </si>
-  <si>
-    <t>20.01.2023</t>
-  </si>
-  <si>
-    <t>Комфорт+:27</t>
-  </si>
-  <si>
-    <t>Комфорт+:4886</t>
-  </si>
-  <si>
-    <t>Комфорт+:30732</t>
-  </si>
-  <si>
-    <t>ООО "Селектел" (Тестовый)</t>
-  </si>
-  <si>
-    <t>АО Тойота Банк</t>
-  </si>
-  <si>
-    <t>22.08.2022</t>
-  </si>
-  <si>
-    <t>КИЭМ (ООО «Клинический институт эстетической медицины»)</t>
-  </si>
-  <si>
-    <t>19.08.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ООО Инттехно </t>
-  </si>
-  <si>
-    <t>12.08.2022</t>
-  </si>
-  <si>
-    <t>ООО Нордекс</t>
-  </si>
-  <si>
-    <t>10.08.2022</t>
-  </si>
-  <si>
-    <t>ООО МЕДИАПОИНТ</t>
-  </si>
-  <si>
-    <t>29.08.2022</t>
-  </si>
-  <si>
-    <t>Эконом:1 Доставка:3</t>
-  </si>
-  <si>
-    <t>Эконом:80 Доставка:625</t>
-  </si>
-  <si>
-    <t>Эконом:613 Доставка:4789</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>05.08.2022</t>
-  </si>
-  <si>
-    <t>ООО «Строганов Групп»</t>
-  </si>
-  <si>
-    <t>06.08.2022</t>
-  </si>
-  <si>
-    <t>Спрингер Нэйчер Лимитед</t>
-  </si>
-  <si>
-    <t>11.08.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ООО Люче </t>
-  </si>
-  <si>
-    <t>04.08.2022</t>
-  </si>
-  <si>
-    <t>22.09.2022</t>
-  </si>
-  <si>
-    <t>Тестовый кабинет для B2B клиентов</t>
-  </si>
-  <si>
-    <t>29.07.2022</t>
-  </si>
-  <si>
-    <t>ООО Спортмастер (Тестовый)</t>
-  </si>
-  <si>
-    <t>28.07.2022</t>
-  </si>
-  <si>
-    <t>МОСКОВСКИЕ РЕСТОРАННЫЕ ТЕХНОЛОГИИ (Ресторан Магадан)</t>
-  </si>
-  <si>
-    <t>ООО Интер РАО ОНЛАЙН</t>
-  </si>
-  <si>
-    <t>Комфорт:4 Комфорт+:2</t>
-  </si>
-  <si>
-    <t>Комфорт:668 Комфорт+:906</t>
-  </si>
-  <si>
-    <t>Комфорт:9420 Комфорт+:7277</t>
-  </si>
-  <si>
-    <t>ООО Лик Форсайд (тестовый кабинет)</t>
-  </si>
-  <si>
-    <t>27.07.2022</t>
-  </si>
-  <si>
-    <t>АО Точка (тестовый кабинет)</t>
-  </si>
-  <si>
-    <t>Бровкин Евгений</t>
-  </si>
-  <si>
-    <t>25.07.2022</t>
-  </si>
-  <si>
-    <t>ООО "ЦБМ и П" (Eclinic)</t>
-  </si>
-  <si>
-    <t>Эконом:142</t>
-  </si>
-  <si>
-    <t>Эконом:396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перно Рикар </t>
-  </si>
-  <si>
-    <t>12.07.2022</t>
-  </si>
-  <si>
-    <t>ООО ЭрСиСи</t>
-  </si>
-  <si>
-    <t>08.07.2022</t>
-  </si>
-  <si>
-    <t>14.07.2022</t>
-  </si>
-  <si>
-    <t>Эконом:14</t>
-  </si>
-  <si>
-    <t>Эконом:2760</t>
-  </si>
-  <si>
-    <t>Эконом:21160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ООО Где Хлеб </t>
-  </si>
-  <si>
-    <t>ООО Студия ЦТ</t>
-  </si>
-  <si>
-    <t>БэстПрайс</t>
-  </si>
-  <si>
-    <t>09.07.2022</t>
-  </si>
-  <si>
-    <t>Эконом:96</t>
-  </si>
-  <si>
-    <t>Эконом:-1511</t>
-  </si>
-  <si>
-    <t>Эконом:32410</t>
-  </si>
-  <si>
-    <t>Водитель попросил отменить заказ:1 Другое:1 Заказал по ошибке:2 Слишком большое время ожидания:5</t>
-  </si>
-  <si>
-    <t>ООО Инвест АГ</t>
-  </si>
-  <si>
-    <t>07.07.2022</t>
-  </si>
-  <si>
-    <t>ЗАО Канонфарма Продакшн</t>
-  </si>
-  <si>
-    <t>Делимобиль</t>
-  </si>
-  <si>
-    <t>Ханмамедов Мурад</t>
-  </si>
-  <si>
-    <t>ООО Купишуз/Ламода (Тестовый)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ООО Серджикс </t>
-  </si>
-  <si>
-    <t>06.07.2022</t>
-  </si>
-  <si>
-    <t>ООО Эссити</t>
-  </si>
-  <si>
-    <t>АО «Деловые Решения и Технологии»</t>
-  </si>
-  <si>
-    <t>05.07.2022</t>
-  </si>
-  <si>
-    <t>ООО "Мак-Кинзи" (Тестовый)</t>
-  </si>
-  <si>
-    <t>ООО Эстоль</t>
-  </si>
-  <si>
-    <t>Эконом:78</t>
-  </si>
-  <si>
-    <t>Эконом:1173 Комфорт:0</t>
-  </si>
-  <si>
-    <t>Эконом:23609 Комфорт:0</t>
-  </si>
-  <si>
-    <t>Тестовая</t>
-  </si>
-  <si>
-    <t>29.06.2022</t>
-  </si>
-  <si>
-    <t>ООО ЮНИМ</t>
-  </si>
-  <si>
-    <t>21.12.2022</t>
-  </si>
-  <si>
-    <t>ООО "КФС СТРИТ РЕСТОРАНТС" (Тестовый)</t>
-  </si>
-  <si>
-    <t>28.06.2022</t>
-  </si>
-  <si>
-    <t>АО Вертолетная Сервисная Компания</t>
-  </si>
-  <si>
-    <t>30.06.2022</t>
-  </si>
-  <si>
-    <t>Эконом:55 Комфорт:67</t>
-  </si>
-  <si>
-    <t>Эконом:3329 Комфорт:3439</t>
-  </si>
-  <si>
-    <t>Эконом:51935 Комфорт:95939</t>
-  </si>
-  <si>
-    <t>ООО Вега-Вега</t>
-  </si>
-  <si>
-    <t>11.07.2022</t>
-  </si>
-  <si>
-    <t>Технологии доверия</t>
-  </si>
-  <si>
-    <t>01.07.2022</t>
-  </si>
-  <si>
-    <t>03.08.2022</t>
-  </si>
-  <si>
-    <t>ООО «ЛЕГЕНДА СМАРТ»</t>
-  </si>
-  <si>
-    <t>23.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ООО Господин Печатник </t>
-  </si>
-  <si>
-    <t>21.06.2022</t>
-  </si>
-  <si>
-    <t>ООО "АлексГрупп"</t>
-  </si>
-  <si>
-    <t>Премиум:0</t>
-  </si>
-  <si>
-    <t>ООО БФА-Строй</t>
-  </si>
-  <si>
-    <t>ООО БФА-Монолит</t>
-  </si>
-  <si>
-    <t>ООО Свон</t>
-  </si>
-  <si>
-    <t>22.06.2022</t>
-  </si>
-  <si>
-    <t>ПАО Группа Ренессанс Страхование</t>
-  </si>
-  <si>
-    <t>15.06.2022</t>
-  </si>
-  <si>
-    <t>27.06.2022</t>
-  </si>
-  <si>
-    <t>ООО ВетЦентрСТ</t>
-  </si>
-  <si>
-    <t>14.06.2022</t>
-  </si>
-  <si>
-    <t>18.06.2022</t>
-  </si>
-  <si>
-    <t>Эконом:11 Комфорт:7 Комфорт+:4</t>
-  </si>
-  <si>
-    <t>Эконом:869 Комфорт:540 Комфорт+:665</t>
-  </si>
-  <si>
-    <t>Эконом:9555 Комфорт:5931 Комфорт+:7314</t>
-  </si>
-  <si>
-    <t>Заказал по ошибке:2 Нашёл другое такси:1 Слишком большое время ожидания:1</t>
-  </si>
-  <si>
-    <t>ООО Джаст Кутюр М</t>
-  </si>
-  <si>
-    <t>10.06.2022</t>
-  </si>
-  <si>
-    <t>Эконом:28</t>
-  </si>
-  <si>
-    <t>Эконом:5375</t>
-  </si>
-  <si>
-    <t>Эконом:33398</t>
-  </si>
-  <si>
-    <t>ООО ГХХ Фарцойге</t>
-  </si>
-  <si>
-    <t>26.06.2022</t>
-  </si>
-  <si>
-    <t>САО ВСК</t>
-  </si>
-  <si>
-    <t>ООО АльфаТЭК</t>
-  </si>
-  <si>
-    <t>ООО Монгер</t>
-  </si>
-  <si>
-    <t>Winterberg Group ООО «Сингулар СиАйЭс»</t>
-  </si>
-  <si>
-    <t>02.06.2022</t>
-  </si>
-  <si>
-    <t>06.06.2022</t>
-  </si>
-  <si>
-    <t>Эконом:1 Комфорт:9 Доставка:3 Комфорт+:37</t>
-  </si>
-  <si>
-    <t>Эконом:115 Комфорт:784 Доставка:269 Комфорт+:5153</t>
-  </si>
-  <si>
-    <t>Эконом:880 Комфорт:6009 Доставка:2060 Комфорт+:39500</t>
-  </si>
-  <si>
-    <t>ООО ТК Витал ЕВВ</t>
-  </si>
-  <si>
-    <t>07.06.2022</t>
-  </si>
-  <si>
-    <t>Эконом:505</t>
-  </si>
-  <si>
-    <t>ООО Главстрой СПб</t>
-  </si>
-  <si>
-    <t>ООО Швабе Фарма Раша</t>
-  </si>
-  <si>
-    <t>01.06.2022</t>
-  </si>
-  <si>
-    <t>17.06.2022</t>
-  </si>
-  <si>
-    <t>Эконом:0 Доставка:0</t>
-  </si>
-  <si>
-    <t>АНО НАМП</t>
-  </si>
-  <si>
-    <t>03.06.2022</t>
-  </si>
-  <si>
-    <t>ООО ГАСТРО ФЭМИЛИ</t>
-  </si>
-  <si>
-    <t>19.06.2022</t>
-  </si>
-  <si>
-    <t>Фонд развития промышленности</t>
-  </si>
-  <si>
-    <t>31.05.2022</t>
-  </si>
-  <si>
-    <t>Эконом:166 Комфорт:17 Бизнес:19 Комфорт+:9</t>
-  </si>
-  <si>
-    <t>Эконом:29413 Комфорт:3104 Бизнес:14937 Комфорт+:1945</t>
-  </si>
-  <si>
-    <t>Эконом:133705 Комфорт:17003 Бизнес:37755 Комфорт+:8902</t>
-  </si>
-  <si>
-    <t>ООО Фитобиотикс Рус</t>
-  </si>
-  <si>
-    <t>ООО Видеолайн</t>
-  </si>
-  <si>
-    <t>30.05.2022</t>
-  </si>
-  <si>
-    <t>Эконом:287</t>
-  </si>
-  <si>
-    <t>Эконом:21888</t>
-  </si>
-  <si>
-    <t>Эконом:68469</t>
-  </si>
-  <si>
-    <t>ООО Валио</t>
-  </si>
-  <si>
-    <t>ООО Шанс</t>
-  </si>
-  <si>
-    <t>27.05.2022</t>
-  </si>
-  <si>
-    <t>ООО Корнайс</t>
-  </si>
-  <si>
-    <t>04.06.2022</t>
-  </si>
-  <si>
-    <t>07.08.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ООО Котлета </t>
-  </si>
-  <si>
-    <t>26.05.2022</t>
-  </si>
-  <si>
-    <t>ООО Алфарма</t>
-  </si>
-  <si>
-    <t>21.08.2022</t>
-  </si>
-  <si>
-    <t>ООО ЛАНСЭЙЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ланит </t>
-  </si>
-  <si>
-    <t>24.05.2022</t>
-  </si>
-  <si>
-    <t>РС Управление Инвестициями</t>
-  </si>
-  <si>
     <t>Комфорт:2</t>
   </si>
   <si>
@@ -1555,10 +1558,10 @@
     <t>16.05.2022</t>
   </si>
   <si>
-    <t>Эконом:150</t>
-  </si>
-  <si>
-    <t>Эконом:520</t>
+    <t>Эконом:1028</t>
+  </si>
+  <si>
+    <t>Эконом:2467</t>
   </si>
   <si>
     <t>ООО Хайтед-Регион</t>
@@ -1591,7 +1594,7 @@
     <t>Эконом:2028</t>
   </si>
   <si>
-    <t>Другое:1</t>
+    <t>Другое:1 Слишком большое время ожидания:1</t>
   </si>
   <si>
     <t>Дом Творчества на Таганке</t>
@@ -1642,13 +1645,13 @@
     <t>15.04.2022</t>
   </si>
   <si>
-    <t>Эконом:40</t>
-  </si>
-  <si>
-    <t>Эконом:1132</t>
-  </si>
-  <si>
-    <t>Эконом:15305</t>
+    <t>Эконом:42</t>
+  </si>
+  <si>
+    <t>Эконом:1208</t>
+  </si>
+  <si>
+    <t>Эконом:16139</t>
   </si>
   <si>
     <t>Гимназия "Покровский квартал"</t>
@@ -1861,13 +1864,13 @@
     <t>01.02.2022</t>
   </si>
   <si>
-    <t>Эконом:143 Комфорт:144 Комфорт+:18</t>
-  </si>
-  <si>
-    <t>Эконом:27899 Комфорт:25093 Бизнес:0 Комфорт+:6199</t>
-  </si>
-  <si>
-    <t>Эконом:95397 Комфорт:118589 Бизнес:0 Комфорт+:27580</t>
+    <t>Эконом:143 Комфорт:145 Комфорт+:18</t>
+  </si>
+  <si>
+    <t>Эконом:27899 Комфорт:25221 Бизнес:0 Комфорт+:6199</t>
+  </si>
+  <si>
+    <t>Эконом:95397 Комфорт:118987 Бизнес:0 Комфорт+:27580</t>
   </si>
   <si>
     <t>ООО РУСТОК</t>
@@ -1888,13 +1891,13 @@
     <t>11.01.2022</t>
   </si>
   <si>
-    <t>Эконом:59 Комфорт:10 Бизнес:11</t>
-  </si>
-  <si>
-    <t>Эконом:3129 Комфорт:1095 Бизнес:7741</t>
-  </si>
-  <si>
-    <t>Эконом:65950 Комфорт:11598 Бизнес:34792</t>
+    <t>Эконом:59 Комфорт:10 Бизнес:12</t>
+  </si>
+  <si>
+    <t>Эконом:3129 Комфорт:1095 Бизнес:7365</t>
+  </si>
+  <si>
+    <t>Эконом:65950 Комфорт:11598 Бизнес:35238</t>
   </si>
   <si>
     <t>ООО "ППИТ-24"</t>
@@ -1957,13 +1960,13 @@
     <t>22.10.2021</t>
   </si>
   <si>
-    <t>Эконом:2257</t>
-  </si>
-  <si>
-    <t>Эконом:539268</t>
-  </si>
-  <si>
-    <t>Эконом:3260725</t>
+    <t>Эконом:2349</t>
+  </si>
+  <si>
+    <t>Эконом:565572</t>
+  </si>
+  <si>
+    <t>Эконом:3387605</t>
   </si>
   <si>
     <t>Марс</t>
@@ -2194,13 +2197,13 @@
     <t>04.03.2021</t>
   </si>
   <si>
-    <t>Эконом:76 Комфорт:15 Бизнес:2 Комфорт+:50</t>
-  </si>
-  <si>
-    <t>Эконом:2104 Комфорт:838 Бизнес:112 Доставка:0 Комфорт+:3449 Премиум:0 Детский:0</t>
-  </si>
-  <si>
-    <t>Эконом:39533 Комфорт:13161 Бизнес:2345 Доставка:0 Комфорт+:54902 Премиум:0 Детский:0</t>
+    <t>Эконом:76 Комфорт:15 Бизнес:3 Комфорт+:53</t>
+  </si>
+  <si>
+    <t>Эконом:2104 Комфорт:838 Бизнес:247 Доставка:0 Комфорт+:3566 Премиум:0 Детский:0</t>
+  </si>
+  <si>
+    <t>Эконом:39533 Комфорт:13161 Бизнес:5185 Доставка:0 Комфорт+:57355 Премиум:0 Детский:0</t>
   </si>
 </sst>
 </file>
@@ -2771,16 +2774,16 @@
         <v>32</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3">
         <v>14</v>
       </c>
       <c r="J3">
-        <v>24337.44</v>
+        <v>24660.32</v>
       </c>
       <c r="K3">
-        <v>1159</v>
+        <v>1175</v>
       </c>
       <c r="L3" t="s">
         <v>33</v>
@@ -2792,13 +2795,13 @@
         <v>35</v>
       </c>
       <c r="O3">
-        <v>681</v>
+        <v>711</v>
       </c>
       <c r="P3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3">
         <v>10</v>
@@ -2810,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2904,16 +2907,16 @@
         <v>32</v>
       </c>
       <c r="H5">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J5">
-        <v>122978</v>
+        <v>132536</v>
       </c>
       <c r="K5">
-        <v>33627</v>
+        <v>35914</v>
       </c>
       <c r="L5" t="s">
         <v>42</v>
@@ -2925,16 +2928,16 @@
         <v>44</v>
       </c>
       <c r="O5">
-        <v>1310</v>
+        <v>1324</v>
       </c>
       <c r="P5">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="Q5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2943,19 +2946,19 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -3164,31 +3167,31 @@
         <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H9">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>13</v>
       </c>
       <c r="J9">
-        <v>37749.6</v>
+        <v>38164.35</v>
       </c>
       <c r="K9">
-        <v>1798</v>
+        <v>1818</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O9">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P9">
         <v>5</v>
@@ -3206,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -3226,7 +3229,7 @@
         <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -3235,7 +3238,7 @@
         <v>9701038993</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3282,7 +3285,7 @@
         <v>367</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -3291,10 +3294,10 @@
         <v>5402058183</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
         <v>38</v>
@@ -3312,13 +3315,13 @@
         <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O11">
         <v>542</v>
@@ -3359,10 +3362,10 @@
         <v>366</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3409,16 +3412,16 @@
         <v>365</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13">
         <v>7701836822</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3465,7 +3468,7 @@
         <v>364</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -3474,13 +3477,13 @@
         <v>7728654530</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3495,13 +3498,13 @@
         <v>504</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O14">
         <v>1202</v>
@@ -3542,7 +3545,7 @@
         <v>363</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -3551,7 +3554,7 @@
         <v>7728654530</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3598,7 +3601,7 @@
         <v>346</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -3607,7 +3610,7 @@
         <v>7728654530</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3654,7 +3657,7 @@
         <v>345</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -3663,13 +3666,13 @@
         <v>7728654530</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17">
         <v>51</v>
@@ -3684,13 +3687,13 @@
         <v>25643</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O17">
         <v>1245</v>
@@ -3731,7 +3734,7 @@
         <v>344</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -3740,7 +3743,7 @@
         <v>7728654530</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3787,7 +3790,7 @@
         <v>343</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -3796,13 +3799,13 @@
         <v>7728654530</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="H19">
         <v>45</v>
@@ -3817,16 +3820,16 @@
         <v>21231</v>
       </c>
       <c r="L19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O19">
-        <v>1300</v>
+        <v>1274</v>
       </c>
       <c r="P19">
         <v>81</v>
@@ -3844,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -3864,7 +3867,7 @@
         <v>342</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -3873,7 +3876,7 @@
         <v>7728654530</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3920,7 +3923,7 @@
         <v>340</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -3929,7 +3932,7 @@
         <v>7728654530</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3976,7 +3979,7 @@
         <v>338</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -3985,7 +3988,7 @@
         <v>7728654530</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4032,7 +4035,7 @@
         <v>337</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -4041,7 +4044,7 @@
         <v>7728654530</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -4088,22 +4091,22 @@
         <v>336</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24">
         <v>7714030483</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -4118,13 +4121,13 @@
         <v>168</v>
       </c>
       <c r="L24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O24">
         <v>687</v>
@@ -4165,7 +4168,7 @@
         <v>335</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -4174,13 +4177,13 @@
         <v>7728654530</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -4230,22 +4233,22 @@
         <v>334</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26">
         <v>7720093523</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -4275,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -4301,7 +4304,7 @@
         <v>333</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -4310,13 +4313,13 @@
         <v>7728654530</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -4331,13 +4334,13 @@
         <v>176</v>
       </c>
       <c r="L27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O27">
         <v>769</v>
@@ -4352,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -4378,22 +4381,22 @@
         <v>332</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D28">
         <v>5260255916</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H28">
         <v>11</v>
@@ -4408,13 +4411,13 @@
         <v>249</v>
       </c>
       <c r="L28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O28">
         <v>565</v>
@@ -4450,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -4458,22 +4461,22 @@
         <v>331</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D29">
         <v>7701765530</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="H29">
         <v>73</v>
@@ -4488,19 +4491,19 @@
         <v>5029</v>
       </c>
       <c r="L29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O29">
-        <v>1207</v>
+        <v>1186</v>
       </c>
       <c r="P29">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q29">
         <v>14</v>
@@ -4515,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -4535,19 +4538,19 @@
         <v>330</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D30">
         <v>7804099031</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" t="s">
         <v>40</v>
@@ -4565,13 +4568,13 @@
         <v>204</v>
       </c>
       <c r="L30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O30">
         <v>593</v>
@@ -4612,22 +4615,22 @@
         <v>324</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31">
         <v>7743709368</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -4677,7 +4680,7 @@
         <v>323</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
@@ -4686,13 +4689,13 @@
         <v>6317099159</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="H32">
         <v>14</v>
@@ -4707,16 +4710,16 @@
         <v>28661</v>
       </c>
       <c r="L32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O32">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="P32">
         <v>5</v>
@@ -4754,22 +4757,22 @@
         <v>322</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33">
         <v>5031147147</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>15</v>
@@ -4784,16 +4787,16 @@
         <v>2881</v>
       </c>
       <c r="L33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O33">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="P33">
         <v>3</v>
@@ -4831,7 +4834,7 @@
         <v>321</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -4840,13 +4843,13 @@
         <v>5752070451</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4896,19 +4899,19 @@
         <v>320</v>
       </c>
       <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" t="s">
         <v>143</v>
       </c>
-      <c r="C35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" t="s">
-        <v>142</v>
-      </c>
       <c r="F35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4958,7 +4961,7 @@
         <v>319</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
@@ -4967,7 +4970,7 @@
         <v>2466193672</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -5014,22 +5017,22 @@
         <v>318</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37">
         <v>3444178513</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H37">
         <v>32</v>
@@ -5044,13 +5047,13 @@
         <v>2431</v>
       </c>
       <c r="L37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O37">
         <v>589</v>
@@ -5091,22 +5094,22 @@
         <v>317</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38">
         <v>7703406825</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -5121,13 +5124,13 @@
         <v>26</v>
       </c>
       <c r="L38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O38">
         <v>287</v>
@@ -5168,19 +5171,19 @@
         <v>316</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -5230,46 +5233,46 @@
         <v>315</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D40">
         <v>9705051177</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H40">
+        <v>170</v>
+      </c>
+      <c r="I40">
+        <v>11</v>
+      </c>
+      <c r="J40">
+        <v>116453.4</v>
+      </c>
+      <c r="K40">
+        <v>5546</v>
+      </c>
+      <c r="L40" t="s">
         <v>162</v>
       </c>
-      <c r="I40">
-        <v>8</v>
-      </c>
-      <c r="J40">
-        <v>110976.6</v>
-      </c>
-      <c r="K40">
-        <v>5285</v>
-      </c>
-      <c r="L40" t="s">
-        <v>161</v>
-      </c>
       <c r="M40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O40">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="P40">
         <v>63</v>
@@ -5307,7 +5310,7 @@
         <v>314</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -5316,7 +5319,7 @@
         <v>2459007621</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -5363,7 +5366,7 @@
         <v>313</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -5372,13 +5375,13 @@
         <v>7810939000</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -5393,13 +5396,13 @@
         <v>91</v>
       </c>
       <c r="L42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O42">
         <v>795</v>
@@ -5440,7 +5443,7 @@
         <v>312</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -5449,13 +5452,13 @@
         <v>1658131773</v>
       </c>
       <c r="E43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -5505,22 +5508,22 @@
         <v>311</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D44">
         <v>5404374025</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -5570,22 +5573,22 @@
         <v>310</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D45">
         <v>7801498077</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="H45">
         <v>14</v>
@@ -5600,16 +5603,16 @@
         <v>1681</v>
       </c>
       <c r="L45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O45">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="P45">
         <v>12</v>
@@ -5647,22 +5650,22 @@
         <v>309</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D46">
         <v>7841090301</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -5686,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -5712,22 +5715,22 @@
         <v>308</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D47">
         <v>7704325706</v>
       </c>
       <c r="E47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H47">
         <v>15</v>
@@ -5742,13 +5745,13 @@
         <v>1116</v>
       </c>
       <c r="L47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O47">
         <v>930</v>
@@ -5789,16 +5792,16 @@
         <v>307</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D48">
         <v>2310133068</v>
       </c>
       <c r="E48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -5845,13 +5848,13 @@
         <v>306</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -5898,7 +5901,7 @@
         <v>305</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
@@ -5907,7 +5910,7 @@
         <v>7724380046</v>
       </c>
       <c r="E50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5954,7 +5957,7 @@
         <v>304</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
@@ -5963,7 +5966,7 @@
         <v>7710561081</v>
       </c>
       <c r="E51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -6010,19 +6013,19 @@
         <v>303</v>
       </c>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -6072,16 +6075,16 @@
         <v>302</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D53">
         <v>7805583894</v>
       </c>
       <c r="E53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -6128,22 +6131,22 @@
         <v>301</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D54">
         <v>7728615387</v>
       </c>
       <c r="E54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -6158,13 +6161,13 @@
         <v>485</v>
       </c>
       <c r="L54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O54">
         <v>1009</v>
@@ -6205,22 +6208,22 @@
         <v>300</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D55">
         <v>7710390245</v>
       </c>
       <c r="E55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -6270,46 +6273,46 @@
         <v>299</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D56">
         <v>7731316845</v>
       </c>
       <c r="E56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H56">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I56">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J56">
-        <v>64682.94</v>
+        <v>66736.64</v>
       </c>
       <c r="K56">
-        <v>5881</v>
+        <v>6067</v>
       </c>
       <c r="L56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O56">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P56">
         <v>52</v>
@@ -6327,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="U56">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -6347,7 +6350,7 @@
         <v>298</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
@@ -6356,7 +6359,7 @@
         <v>7708096662</v>
       </c>
       <c r="E57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -6403,7 +6406,7 @@
         <v>297</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
@@ -6412,10 +6415,10 @@
         <v>1655386893</v>
       </c>
       <c r="E58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -6433,19 +6436,19 @@
         <v>790</v>
       </c>
       <c r="L58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O58">
         <v>549</v>
       </c>
       <c r="P58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -6480,7 +6483,7 @@
         <v>296</v>
       </c>
       <c r="B59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
@@ -6489,7 +6492,7 @@
         <v>7743883091</v>
       </c>
       <c r="E59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -6536,7 +6539,7 @@
         <v>295</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
         <v>37</v>
@@ -6545,13 +6548,13 @@
         <v>4703151995</v>
       </c>
       <c r="E60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -6563,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="P60">
         <v>15</v>
@@ -6601,22 +6604,22 @@
         <v>294</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D61">
         <v>7838087958</v>
       </c>
       <c r="E61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6666,16 +6669,16 @@
         <v>293</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62">
         <v>7725307497</v>
       </c>
       <c r="E62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6722,43 +6725,43 @@
         <v>292</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D63">
         <v>7707073366</v>
       </c>
       <c r="E63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="H63">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I63">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J63">
-        <v>19131.4</v>
+        <v>19558.05</v>
       </c>
       <c r="K63">
-        <v>2496</v>
+        <v>2552</v>
       </c>
       <c r="L63" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N63" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O63">
         <v>699</v>
@@ -6785,13 +6788,13 @@
         <v>0</v>
       </c>
       <c r="W63">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X63">
         <v>0</v>
       </c>
       <c r="Y63">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
@@ -6799,16 +6802,16 @@
         <v>291</v>
       </c>
       <c r="B64" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64">
         <v>9709066329</v>
       </c>
       <c r="E64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6855,19 +6858,19 @@
         <v>286</v>
       </c>
       <c r="B65" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D65">
         <v>5022050558</v>
       </c>
       <c r="E65" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F65" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G65" t="s">
         <v>53</v>
@@ -6882,10 +6885,10 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N65" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O65">
         <v>2305</v>
@@ -6926,7 +6929,7 @@
         <v>285</v>
       </c>
       <c r="B66" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
@@ -6935,13 +6938,13 @@
         <v>7830002896</v>
       </c>
       <c r="E66" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G66" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6991,22 +6994,22 @@
         <v>284</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D67">
         <v>7814661228</v>
       </c>
       <c r="E67" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F67" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H67">
         <v>8</v>
@@ -7021,13 +7024,13 @@
         <v>866</v>
       </c>
       <c r="L67" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M67" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N67" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O67">
         <v>741</v>
@@ -7063,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="Z67" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
@@ -7071,16 +7074,16 @@
         <v>283</v>
       </c>
       <c r="B68" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D68">
         <v>7806510112</v>
       </c>
       <c r="E68" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -7127,19 +7130,19 @@
         <v>282</v>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D69">
         <v>7717527178</v>
       </c>
       <c r="E69" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G69" t="s">
         <v>38</v>
@@ -7157,13 +7160,13 @@
         <v>66</v>
       </c>
       <c r="L69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M69" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N69" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O69">
         <v>822</v>
@@ -7204,7 +7207,7 @@
         <v>281</v>
       </c>
       <c r="B70" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C70" t="s">
         <v>37</v>
@@ -7213,37 +7216,37 @@
         <v>7710874863</v>
       </c>
       <c r="E70" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F70" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H70">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I70">
         <v>9</v>
       </c>
       <c r="J70">
-        <v>80057</v>
+        <v>83797</v>
       </c>
       <c r="K70">
-        <v>9326</v>
+        <v>9594</v>
       </c>
       <c r="L70" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M70" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N70" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O70">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="P70">
         <v>10</v>
@@ -7276,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="Z70" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
@@ -7284,7 +7287,7 @@
         <v>279</v>
       </c>
       <c r="B71" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C71" t="s">
         <v>37</v>
@@ -7293,13 +7296,13 @@
         <v>5404253172</v>
       </c>
       <c r="E71" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F71" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G71" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7346,7 +7349,7 @@
         <v>277</v>
       </c>
       <c r="B72" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
@@ -7355,13 +7358,13 @@
         <v>7811750744</v>
       </c>
       <c r="E72" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7411,22 +7414,22 @@
         <v>276</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D73">
         <v>5051008208</v>
       </c>
       <c r="E73" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F73" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G73" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7438,10 +7441,10 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N73" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P73">
         <v>9</v>
@@ -7479,19 +7482,19 @@
         <v>275</v>
       </c>
       <c r="B74" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D74">
         <v>7704113772</v>
       </c>
       <c r="E74" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G74" t="s">
         <v>54</v>
@@ -7544,19 +7547,19 @@
         <v>274</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E75" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F75" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G75" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7603,19 +7606,19 @@
         <v>273</v>
       </c>
       <c r="B76" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D76">
         <v>9729042333</v>
       </c>
       <c r="E76" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F76" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G76" t="s">
         <v>48</v>
@@ -7630,10 +7633,10 @@
         <v>0</v>
       </c>
       <c r="M76" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N76" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O76">
         <v>482</v>
@@ -7674,7 +7677,7 @@
         <v>272</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s">
         <v>30</v>
@@ -7683,13 +7686,13 @@
         <v>1657205528</v>
       </c>
       <c r="E77" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F77" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H77">
         <v>20</v>
@@ -7704,13 +7707,13 @@
         <v>2179</v>
       </c>
       <c r="L77" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M77" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N77" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O77">
         <v>840</v>
@@ -7746,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="Z77" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
@@ -7754,22 +7757,22 @@
         <v>271</v>
       </c>
       <c r="B78" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D78">
         <v>7715870622</v>
       </c>
       <c r="E78" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F78" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G78" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7819,16 +7822,16 @@
         <v>270</v>
       </c>
       <c r="B79" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D79">
         <v>7810755274</v>
       </c>
       <c r="E79" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7875,7 +7878,7 @@
         <v>269</v>
       </c>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C80" t="s">
         <v>37</v>
@@ -7884,7 +7887,7 @@
         <v>1639047163</v>
       </c>
       <c r="E80" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7931,13 +7934,13 @@
         <v>268</v>
       </c>
       <c r="B81" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E81" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7984,16 +7987,16 @@
         <v>267</v>
       </c>
       <c r="B82" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D82">
         <v>2312141995</v>
       </c>
       <c r="E82" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8040,16 +8043,16 @@
         <v>266</v>
       </c>
       <c r="B83" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D83">
         <v>4703182418</v>
       </c>
       <c r="E83" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8096,16 +8099,16 @@
         <v>265</v>
       </c>
       <c r="B84" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D84">
         <v>7811408643</v>
       </c>
       <c r="E84" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8152,16 +8155,16 @@
         <v>264</v>
       </c>
       <c r="B85" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C85" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D85">
         <v>1659214990</v>
       </c>
       <c r="E85" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8208,7 +8211,7 @@
         <v>263</v>
       </c>
       <c r="B86" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C86" t="s">
         <v>30</v>
@@ -8217,34 +8220,34 @@
         <v>7813650590</v>
       </c>
       <c r="E86" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F86" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G86" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H86">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I86">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J86">
-        <v>45988.5</v>
+        <v>50421.75</v>
       </c>
       <c r="K86">
-        <v>5999</v>
+        <v>6577</v>
       </c>
       <c r="L86" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M86" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N86" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O86">
         <v>1051</v>
@@ -8285,22 +8288,22 @@
         <v>262</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C87" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D87">
         <v>6658520916</v>
       </c>
       <c r="E87" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F87" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G87" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8347,13 +8350,13 @@
         <v>261</v>
       </c>
       <c r="B88" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8365,10 +8368,10 @@
         <v>0</v>
       </c>
       <c r="M88" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N88" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P88">
         <v>2</v>
@@ -8406,43 +8409,43 @@
         <v>260</v>
       </c>
       <c r="B89" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E89" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F89" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H89">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I89">
         <v>14</v>
       </c>
       <c r="J89">
-        <v>232357</v>
+        <v>234347</v>
       </c>
       <c r="K89">
-        <v>51398</v>
+        <v>51769</v>
       </c>
       <c r="L89" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M89" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N89" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O89">
-        <v>2281</v>
+        <v>2287</v>
       </c>
       <c r="P89">
         <v>12</v>
@@ -8480,22 +8483,22 @@
         <v>259</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D90">
         <v>7728668928</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F90" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G90" t="s">
-        <v>299</v>
+        <v>55</v>
       </c>
       <c r="H90">
         <v>7</v>
@@ -8510,16 +8513,16 @@
         <v>1376</v>
       </c>
       <c r="L90" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M90" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N90" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O90">
-        <v>1795</v>
+        <v>1764</v>
       </c>
       <c r="P90">
         <v>2</v>
@@ -8552,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="Z90" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
@@ -8560,22 +8563,22 @@
         <v>258</v>
       </c>
       <c r="B91" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D91">
         <v>7724877159</v>
       </c>
       <c r="E91" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F91" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8622,16 +8625,16 @@
         <v>257</v>
       </c>
       <c r="B92" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D92">
         <v>7714478010</v>
       </c>
       <c r="E92" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8678,7 +8681,7 @@
         <v>256</v>
       </c>
       <c r="B93" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C93" t="s">
         <v>30</v>
@@ -8687,37 +8690,37 @@
         <v>7813590535</v>
       </c>
       <c r="E93" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F93" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H93">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="I93">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J93">
-        <v>124048.1</v>
+        <v>130048.6</v>
       </c>
       <c r="K93">
-        <v>11278</v>
+        <v>11823</v>
       </c>
       <c r="L93" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M93" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O93">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="P93">
         <v>3</v>
@@ -8735,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="U93">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -8755,7 +8758,7 @@
         <v>255</v>
       </c>
       <c r="B94" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C94" t="s">
         <v>30</v>
@@ -8764,7 +8767,7 @@
         <v>7727248663</v>
       </c>
       <c r="E94" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8811,13 +8814,13 @@
         <v>254</v>
       </c>
       <c r="B95" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C95" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E95" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8870,16 +8873,16 @@
         <v>253</v>
       </c>
       <c r="B96" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D96">
         <v>7806161461</v>
       </c>
       <c r="E96" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -8926,7 +8929,7 @@
         <v>252</v>
       </c>
       <c r="B97" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C97" t="s">
         <v>30</v>
@@ -8935,7 +8938,7 @@
         <v>5907049328</v>
       </c>
       <c r="E97" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -8982,7 +8985,7 @@
         <v>251</v>
       </c>
       <c r="B98" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C98" t="s">
         <v>30</v>
@@ -8991,13 +8994,13 @@
         <v>7736339684</v>
       </c>
       <c r="E98" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F98" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9044,7 +9047,7 @@
         <v>250</v>
       </c>
       <c r="B99" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C99" t="s">
         <v>30</v>
@@ -9053,13 +9056,13 @@
         <v>7710747833</v>
       </c>
       <c r="E99" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F99" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G99" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="H99">
         <v>9</v>
@@ -9074,16 +9077,16 @@
         <v>5602</v>
       </c>
       <c r="L99" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M99" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N99" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O99">
-        <v>2194</v>
+        <v>2165</v>
       </c>
       <c r="P99">
         <v>19</v>
@@ -9121,7 +9124,7 @@
         <v>249</v>
       </c>
       <c r="B100" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C100" t="s">
         <v>30</v>
@@ -9130,13 +9133,13 @@
         <v>7704218694</v>
       </c>
       <c r="E100" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F100" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G100" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9146,9 +9149,6 @@
       </c>
       <c r="K100">
         <v>0</v>
-      </c>
-      <c r="O100">
-        <v>704</v>
       </c>
       <c r="P100">
         <v>13</v>
@@ -9186,22 +9186,22 @@
         <v>248</v>
       </c>
       <c r="B101" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D101">
         <v>4511041938</v>
       </c>
       <c r="E101" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F101" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G101" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>247</v>
       </c>
       <c r="B102" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D102">
         <v>7447128667</v>
       </c>
       <c r="E102" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F102" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G102" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9313,13 +9313,13 @@
         <v>246</v>
       </c>
       <c r="B103" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E103" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9366,7 +9366,7 @@
         <v>245</v>
       </c>
       <c r="B104" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C104" t="s">
         <v>37</v>
@@ -9375,13 +9375,13 @@
         <v>9731031547</v>
       </c>
       <c r="E104" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F104" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G104" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>244</v>
       </c>
       <c r="B105" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C105" t="s">
         <v>30</v>
@@ -9437,13 +9437,13 @@
         <v>9705138734</v>
       </c>
       <c r="E105" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F105" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G105" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9490,7 +9490,7 @@
         <v>243</v>
       </c>
       <c r="B106" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C106" t="s">
         <v>30</v>
@@ -9499,13 +9499,13 @@
         <v>7728765992</v>
       </c>
       <c r="E106" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F106" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G106" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H106">
         <v>27</v>
@@ -9520,13 +9520,13 @@
         <v>4886</v>
       </c>
       <c r="L106" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M106" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N106" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O106">
         <v>1040</v>
@@ -9567,16 +9567,16 @@
         <v>242</v>
       </c>
       <c r="B107" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C107" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D107">
         <v>7842393933</v>
       </c>
       <c r="E107" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -9623,19 +9623,19 @@
         <v>241</v>
       </c>
       <c r="B108" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C108" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E108" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -9682,13 +9682,13 @@
         <v>240</v>
       </c>
       <c r="B109" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C109" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E109" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -9735,13 +9735,13 @@
         <v>238</v>
       </c>
       <c r="B110" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C110" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E110" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -9788,7 +9788,7 @@
         <v>237</v>
       </c>
       <c r="B111" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C111" t="s">
         <v>30</v>
@@ -9797,13 +9797,13 @@
         <v>1660283734</v>
       </c>
       <c r="E111" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F111" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G111" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -9850,19 +9850,19 @@
         <v>236</v>
       </c>
       <c r="B112" t="s">
+        <v>353</v>
+      </c>
+      <c r="C112" t="s">
+        <v>101</v>
+      </c>
+      <c r="E112" t="s">
         <v>352</v>
       </c>
-      <c r="C112" t="s">
-        <v>100</v>
-      </c>
-      <c r="E112" t="s">
-        <v>351</v>
-      </c>
       <c r="F112" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G112" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -9877,16 +9877,16 @@
         <v>705</v>
       </c>
       <c r="L112" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M112" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N112" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O112">
-        <v>1380</v>
+        <v>1324</v>
       </c>
       <c r="P112">
         <v>3</v>
@@ -9924,10 +9924,10 @@
         <v>235</v>
       </c>
       <c r="B113" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E113" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -9974,22 +9974,22 @@
         <v>234</v>
       </c>
       <c r="B114" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D114">
         <v>7838092740</v>
       </c>
       <c r="E114" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F114" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G114" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10036,19 +10036,19 @@
         <v>233</v>
       </c>
       <c r="B115" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C115" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E115" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F115" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G115" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10098,19 +10098,19 @@
         <v>232</v>
       </c>
       <c r="B116" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C116" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E116" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F116" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G116" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10157,13 +10157,13 @@
         <v>231</v>
       </c>
       <c r="B117" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C117" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E117" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10210,13 +10210,13 @@
         <v>230</v>
       </c>
       <c r="B118" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C118" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E118" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10263,19 +10263,19 @@
         <v>229</v>
       </c>
       <c r="B119" t="s">
+        <v>371</v>
+      </c>
+      <c r="C119" t="s">
+        <v>70</v>
+      </c>
+      <c r="E119" t="s">
         <v>370</v>
       </c>
-      <c r="C119" t="s">
-        <v>69</v>
-      </c>
-      <c r="E119" t="s">
-        <v>369</v>
-      </c>
       <c r="F119" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G119" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -10322,19 +10322,19 @@
         <v>228</v>
       </c>
       <c r="B120" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C120" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E120" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F120" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G120" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H120">
         <v>6</v>
@@ -10349,13 +10349,13 @@
         <v>1574</v>
       </c>
       <c r="L120" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M120" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N120" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O120">
         <v>1547</v>
@@ -10396,13 +10396,13 @@
         <v>227</v>
       </c>
       <c r="B121" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C121" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E121" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -10449,13 +10449,13 @@
         <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C122" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E122" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -10502,7 +10502,7 @@
         <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C123" t="s">
         <v>37</v>
@@ -10511,10 +10511,10 @@
         <v>2722116216</v>
       </c>
       <c r="E123" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F123" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G123" t="s">
         <v>38</v>
@@ -10532,13 +10532,13 @@
         <v>142</v>
       </c>
       <c r="L123" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M123" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N123" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O123">
         <v>396</v>
@@ -10579,13 +10579,13 @@
         <v>224</v>
       </c>
       <c r="B124" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C124" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E124" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -10632,19 +10632,19 @@
         <v>223</v>
       </c>
       <c r="B125" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C125" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E125" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F125" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G125" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H125">
         <v>14</v>
@@ -10659,13 +10659,13 @@
         <v>2760</v>
       </c>
       <c r="L125" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M125" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N125" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O125">
         <v>1800</v>
@@ -10706,13 +10706,13 @@
         <v>222</v>
       </c>
       <c r="B126" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C126" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E126" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -10759,13 +10759,13 @@
         <v>221</v>
       </c>
       <c r="B127" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C127" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E127" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -10812,43 +10812,43 @@
         <v>220</v>
       </c>
       <c r="B128" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C128" t="s">
         <v>37</v>
       </c>
       <c r="E128" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F128" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H128">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I128">
         <v>9</v>
       </c>
       <c r="J128">
-        <v>32410</v>
+        <v>33095</v>
       </c>
       <c r="K128">
-        <v>-1511</v>
+        <v>-1585</v>
       </c>
       <c r="L128" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M128" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N128" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O128">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P128">
         <v>9</v>
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="Z128" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
@@ -10889,13 +10889,13 @@
         <v>219</v>
       </c>
       <c r="B129" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C129" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E129" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -10942,13 +10942,13 @@
         <v>218</v>
       </c>
       <c r="B130" t="s">
+        <v>402</v>
+      </c>
+      <c r="C130" t="s">
+        <v>122</v>
+      </c>
+      <c r="E130" t="s">
         <v>401</v>
-      </c>
-      <c r="C130" t="s">
-        <v>121</v>
-      </c>
-      <c r="E130" t="s">
-        <v>400</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>217</v>
       </c>
       <c r="B131" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C131" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E131" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -11048,13 +11048,13 @@
         <v>216</v>
       </c>
       <c r="B132" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C132" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E132" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -11101,13 +11101,13 @@
         <v>215</v>
       </c>
       <c r="B133" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C133" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E133" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>214</v>
       </c>
       <c r="B134" t="s">
+        <v>408</v>
+      </c>
+      <c r="C134" t="s">
+        <v>122</v>
+      </c>
+      <c r="E134" t="s">
         <v>407</v>
-      </c>
-      <c r="C134" t="s">
-        <v>121</v>
-      </c>
-      <c r="E134" t="s">
-        <v>406</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -11207,19 +11207,19 @@
         <v>213</v>
       </c>
       <c r="B135" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C135" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D135">
         <v>7703097990</v>
       </c>
       <c r="E135" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F135" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G135" t="s">
         <v>53</v>
@@ -11272,13 +11272,13 @@
         <v>212</v>
       </c>
       <c r="B136" t="s">
+        <v>411</v>
+      </c>
+      <c r="C136" t="s">
+        <v>122</v>
+      </c>
+      <c r="E136" t="s">
         <v>410</v>
-      </c>
-      <c r="C136" t="s">
-        <v>121</v>
-      </c>
-      <c r="E136" t="s">
-        <v>409</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -11325,7 +11325,7 @@
         <v>211</v>
       </c>
       <c r="B137" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C137" t="s">
         <v>37</v>
@@ -11334,34 +11334,34 @@
         <v>6662009912</v>
       </c>
       <c r="E137" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F137" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H137">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I137">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J137">
-        <v>23609</v>
+        <v>25293</v>
       </c>
       <c r="K137">
-        <v>1173</v>
+        <v>1353</v>
       </c>
       <c r="L137" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M137" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N137" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O137">
         <v>299</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="U137">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V137">
         <v>0</v>
@@ -11402,19 +11402,19 @@
         <v>210</v>
       </c>
       <c r="B138" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C138" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E138" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F138" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G138" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -11461,19 +11461,19 @@
         <v>209</v>
       </c>
       <c r="B139" t="s">
+        <v>418</v>
+      </c>
+      <c r="C139" t="s">
+        <v>122</v>
+      </c>
+      <c r="E139" t="s">
         <v>417</v>
       </c>
-      <c r="C139" t="s">
-        <v>121</v>
-      </c>
-      <c r="E139" t="s">
-        <v>416</v>
-      </c>
       <c r="F139" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G139" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -11523,13 +11523,13 @@
         <v>208</v>
       </c>
       <c r="B140" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E140" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -11576,19 +11576,19 @@
         <v>207</v>
       </c>
       <c r="B141" t="s">
+        <v>422</v>
+      </c>
+      <c r="C141" t="s">
+        <v>101</v>
+      </c>
+      <c r="E141" t="s">
         <v>421</v>
       </c>
-      <c r="C141" t="s">
-        <v>100</v>
-      </c>
-      <c r="E141" t="s">
-        <v>420</v>
-      </c>
       <c r="F141" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G141" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>122</v>
@@ -11603,16 +11603,16 @@
         <v>7057</v>
       </c>
       <c r="L141" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M141" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N141" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O141">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="P141">
         <v>8</v>
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="U141">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V141">
         <v>0</v>
@@ -11650,19 +11650,19 @@
         <v>206</v>
       </c>
       <c r="B142" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C142" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E142" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F142" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G142" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -11709,19 +11709,19 @@
         <v>205</v>
       </c>
       <c r="B143" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C143" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E143" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F143" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G143" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -11768,13 +11768,13 @@
         <v>204</v>
       </c>
       <c r="B144" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E144" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -11821,13 +11821,13 @@
         <v>203</v>
       </c>
       <c r="B145" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C145" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E145" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -11874,7 +11874,7 @@
         <v>202</v>
       </c>
       <c r="B146" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C146" t="s">
         <v>37</v>
@@ -11883,13 +11883,13 @@
         <v>7840059764</v>
       </c>
       <c r="E146" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F146" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G146" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -11901,10 +11901,10 @@
         <v>0</v>
       </c>
       <c r="M146" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N146" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O146">
         <v>593</v>
@@ -11945,13 +11945,13 @@
         <v>201</v>
       </c>
       <c r="B147" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C147" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E147" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -11998,13 +11998,13 @@
         <v>200</v>
       </c>
       <c r="B148" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C148" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E148" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -12051,19 +12051,19 @@
         <v>199</v>
       </c>
       <c r="B149" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C149" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E149" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F149" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G149" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -12110,19 +12110,19 @@
         <v>198</v>
       </c>
       <c r="B150" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C150" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E150" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F150" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G150" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -12169,19 +12169,19 @@
         <v>197</v>
       </c>
       <c r="B151" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C151" t="s">
         <v>37</v>
       </c>
       <c r="E151" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F151" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G151" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="H151">
         <v>22</v>
@@ -12196,16 +12196,16 @@
         <v>2073</v>
       </c>
       <c r="L151" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M151" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N151" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O151">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="P151">
         <v>21</v>
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="Z151" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
@@ -12246,19 +12246,19 @@
         <v>196</v>
       </c>
       <c r="B152" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C152" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E152" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F152" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G152" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="H152">
         <v>28</v>
@@ -12273,7 +12273,7 @@
         <v>5375</v>
       </c>
       <c r="L152" t="s">
-        <v>453</v>
+        <v>228</v>
       </c>
       <c r="M152" t="s">
         <v>454</v>
@@ -12282,7 +12282,7 @@
         <v>455</v>
       </c>
       <c r="O152">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="P152">
         <v>19</v>
@@ -12323,10 +12323,10 @@
         <v>456</v>
       </c>
       <c r="C153" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E153" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F153" t="s">
         <v>457</v>
@@ -12382,10 +12382,10 @@
         <v>458</v>
       </c>
       <c r="C154" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E154" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -12435,10 +12435,10 @@
         <v>459</v>
       </c>
       <c r="C155" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E155" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -12488,10 +12488,10 @@
         <v>460</v>
       </c>
       <c r="C156" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E156" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -12550,7 +12550,7 @@
         <v>463</v>
       </c>
       <c r="G157" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H157">
         <v>50</v>
@@ -12615,7 +12615,7 @@
         <v>467</v>
       </c>
       <c r="C158" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E158" t="s">
         <v>462</v>
@@ -12639,10 +12639,10 @@
         <v>66</v>
       </c>
       <c r="L158" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M158" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N158" t="s">
         <v>469</v>
@@ -12698,10 +12698,10 @@
         <v>462</v>
       </c>
       <c r="F159" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G159" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -12751,7 +12751,7 @@
         <v>471</v>
       </c>
       <c r="C160" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E160" t="s">
         <v>472</v>
@@ -12760,7 +12760,7 @@
         <v>473</v>
       </c>
       <c r="G160" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -12819,7 +12819,7 @@
         <v>475</v>
       </c>
       <c r="C161" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E161" t="s">
         <v>472</v>
@@ -12878,7 +12878,7 @@
         <v>477</v>
       </c>
       <c r="C162" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E162" t="s">
         <v>472</v>
@@ -12937,7 +12937,7 @@
         <v>479</v>
       </c>
       <c r="C163" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E163" t="s">
         <v>480</v>
@@ -12949,16 +12949,16 @@
         <v>32</v>
       </c>
       <c r="H163">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I163">
         <v>28</v>
       </c>
       <c r="J163">
-        <v>197363.57</v>
+        <v>198153.57</v>
       </c>
       <c r="K163">
-        <v>49398</v>
+        <v>49547</v>
       </c>
       <c r="L163" t="s">
         <v>481</v>
@@ -12970,10 +12970,10 @@
         <v>483</v>
       </c>
       <c r="O163">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="P163">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q163">
         <v>26</v>
@@ -12988,7 +12988,7 @@
         <v>0</v>
       </c>
       <c r="U163">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V163">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>484</v>
       </c>
       <c r="C164" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E164" t="s">
         <v>480</v>
@@ -13073,19 +13073,19 @@
         <v>480</v>
       </c>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H165">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="I165">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J165">
-        <v>68469</v>
+        <v>71768</v>
       </c>
       <c r="K165">
-        <v>21888</v>
+        <v>23039</v>
       </c>
       <c r="L165" t="s">
         <v>487</v>
@@ -13097,7 +13097,7 @@
         <v>489</v>
       </c>
       <c r="O165">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P165">
         <v>36</v>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="U165">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V165">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>490</v>
       </c>
       <c r="C166" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E166" t="s">
         <v>486</v>
@@ -13147,7 +13147,7 @@
         <v>486</v>
       </c>
       <c r="G166" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>491</v>
       </c>
       <c r="C167" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E167" t="s">
         <v>492</v>
@@ -13206,7 +13206,7 @@
         <v>480</v>
       </c>
       <c r="G167" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -13256,7 +13256,7 @@
         <v>493</v>
       </c>
       <c r="C168" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E168" t="s">
         <v>492</v>
@@ -13315,7 +13315,7 @@
         <v>496</v>
       </c>
       <c r="C169" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E169" t="s">
         <v>497</v>
@@ -13368,7 +13368,7 @@
         <v>498</v>
       </c>
       <c r="C170" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E170" t="s">
         <v>497</v>
@@ -13430,7 +13430,7 @@
         <v>500</v>
       </c>
       <c r="C171" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E171" t="s">
         <v>497</v>
@@ -13489,7 +13489,7 @@
         <v>501</v>
       </c>
       <c r="C172" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E172" t="s">
         <v>502</v>
@@ -13542,7 +13542,7 @@
         <v>503</v>
       </c>
       <c r="C173" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E173" t="s">
         <v>502</v>
@@ -13551,7 +13551,7 @@
         <v>486</v>
       </c>
       <c r="G173" t="s">
-        <v>299</v>
+        <v>504</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -13566,13 +13566,13 @@
         <v>57</v>
       </c>
       <c r="L173" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M173" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N173" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O173">
         <v>856</v>
@@ -13608,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="Z173" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
@@ -13616,19 +13616,19 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C174" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E174" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F174" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G174" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -13675,13 +13675,13 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C175" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E175" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -13728,40 +13728,40 @@
         <v>169</v>
       </c>
       <c r="B176" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C176" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E176" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F176" t="s">
         <v>486</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176">
-        <v>520</v>
+        <v>2467</v>
       </c>
       <c r="K176">
-        <v>150</v>
+        <v>1028</v>
       </c>
       <c r="L176" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="M176" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N176" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O176">
         <v>1401</v>
@@ -13770,7 +13770,7 @@
         <v>34</v>
       </c>
       <c r="Q176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R176">
         <v>0</v>
@@ -13788,13 +13788,13 @@
         <v>0</v>
       </c>
       <c r="W176">
+        <v>4</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
         <v>2</v>
-      </c>
-      <c r="X176">
-        <v>0</v>
-      </c>
-      <c r="Y176">
-        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.25">
@@ -13802,10 +13802,10 @@
         <v>168</v>
       </c>
       <c r="B177" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E177" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -13852,19 +13852,19 @@
         <v>167</v>
       </c>
       <c r="B178" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C178" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E178" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F178" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G178" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -13911,13 +13911,13 @@
         <v>166</v>
       </c>
       <c r="B179" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C179" t="s">
         <v>37</v>
       </c>
       <c r="E179" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F179" t="s">
         <v>492</v>
@@ -13938,16 +13938,16 @@
         <v>-188</v>
       </c>
       <c r="L179" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M179" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N179" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O179">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="P179">
         <v>37</v>
@@ -13965,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="U179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V179">
         <v>0</v>
@@ -13980,7 +13980,7 @@
         <v>0</v>
       </c>
       <c r="Z179" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.25">
@@ -13988,16 +13988,16 @@
         <v>165</v>
       </c>
       <c r="B180" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C180" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E180" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F180" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G180" t="s">
         <v>46</v>
@@ -14012,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="O180">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="P180">
         <v>5</v>
@@ -14050,19 +14050,19 @@
         <v>164</v>
       </c>
       <c r="B181" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C181" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E181" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F181" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G181" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="H181">
         <v>39</v>
@@ -14077,13 +14077,13 @@
         <v>17783</v>
       </c>
       <c r="L181" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M181" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N181" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O181">
         <v>1702</v>
@@ -14124,19 +14124,19 @@
         <v>163</v>
       </c>
       <c r="B182" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C182" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E182" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F182" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G182" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -14183,13 +14183,13 @@
         <v>162</v>
       </c>
       <c r="B183" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C183" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E183" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -14236,40 +14236,40 @@
         <v>161</v>
       </c>
       <c r="B184" t="s">
+        <v>542</v>
+      </c>
+      <c r="C184" t="s">
+        <v>122</v>
+      </c>
+      <c r="E184" t="s">
         <v>541</v>
       </c>
-      <c r="C184" t="s">
-        <v>121</v>
-      </c>
-      <c r="E184" t="s">
-        <v>540</v>
-      </c>
       <c r="F184" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G184" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="H184">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I184">
         <v>18</v>
       </c>
       <c r="J184">
-        <v>15304.3</v>
+        <v>16138.1</v>
       </c>
       <c r="K184">
-        <v>1392</v>
+        <v>1468</v>
       </c>
       <c r="L184" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M184" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N184" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O184">
         <v>357</v>
@@ -14296,7 +14296,7 @@
         <v>0</v>
       </c>
       <c r="W184">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="X184">
         <v>0</v>
@@ -14310,16 +14310,16 @@
         <v>160</v>
       </c>
       <c r="B185" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C185" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E185" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F185" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G185" t="s">
         <v>48</v>
@@ -14372,19 +14372,19 @@
         <v>159</v>
       </c>
       <c r="B186" t="s">
+        <v>549</v>
+      </c>
+      <c r="C186" t="s">
+        <v>101</v>
+      </c>
+      <c r="E186" t="s">
+        <v>550</v>
+      </c>
+      <c r="F186" t="s">
+        <v>550</v>
+      </c>
+      <c r="G186" t="s">
         <v>548</v>
-      </c>
-      <c r="C186" t="s">
-        <v>100</v>
-      </c>
-      <c r="E186" t="s">
-        <v>549</v>
-      </c>
-      <c r="F186" t="s">
-        <v>549</v>
-      </c>
-      <c r="G186" t="s">
-        <v>547</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -14431,10 +14431,10 @@
         <v>158</v>
       </c>
       <c r="B187" t="s">
+        <v>551</v>
+      </c>
+      <c r="E187" t="s">
         <v>550</v>
-      </c>
-      <c r="E187" t="s">
-        <v>549</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -14481,19 +14481,19 @@
         <v>157</v>
       </c>
       <c r="B188" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C188" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E188" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F188" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G188" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -14540,19 +14540,19 @@
         <v>156</v>
       </c>
       <c r="B189" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C189" t="s">
         <v>37</v>
       </c>
       <c r="E189" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F189" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G189" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -14567,16 +14567,16 @@
         <v>1653</v>
       </c>
       <c r="L189" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M189" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N189" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O189">
-        <v>1034</v>
+        <v>1005</v>
       </c>
       <c r="P189">
         <v>87</v>
@@ -14614,13 +14614,13 @@
         <v>155</v>
       </c>
       <c r="B190" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C190" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E190" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -14667,19 +14667,19 @@
         <v>154</v>
       </c>
       <c r="B191" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C191" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E191" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F191" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G191" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -14694,13 +14694,13 @@
         <v>129</v>
       </c>
       <c r="L191" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M191" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N191" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O191">
         <v>641</v>
@@ -14741,19 +14741,19 @@
         <v>153</v>
       </c>
       <c r="B192" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C192" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E192" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F192" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G192" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -14765,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="O192">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="P192">
         <v>2</v>
@@ -14803,19 +14803,19 @@
         <v>152</v>
       </c>
       <c r="B193" t="s">
+        <v>571</v>
+      </c>
+      <c r="C193" t="s">
+        <v>101</v>
+      </c>
+      <c r="E193" t="s">
         <v>570</v>
       </c>
-      <c r="C193" t="s">
-        <v>100</v>
-      </c>
-      <c r="E193" t="s">
-        <v>569</v>
-      </c>
       <c r="F193" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G193" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -14827,13 +14827,13 @@
         <v>0</v>
       </c>
       <c r="M193" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N193" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O193">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="P193">
         <v>17</v>
@@ -14871,19 +14871,19 @@
         <v>151</v>
       </c>
       <c r="B194" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C194" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E194" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F194" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G194" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -14930,16 +14930,16 @@
         <v>150</v>
       </c>
       <c r="B195" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C195" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E195" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F195" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G195" t="s">
         <v>48</v>
@@ -14954,7 +14954,7 @@
         <v>0</v>
       </c>
       <c r="O195">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="P195">
         <v>2</v>
@@ -14992,19 +14992,19 @@
         <v>149</v>
       </c>
       <c r="B196" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C196" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E196" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F196" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G196" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -15054,19 +15054,19 @@
         <v>148</v>
       </c>
       <c r="B197" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C197" t="s">
         <v>37</v>
       </c>
       <c r="E197" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F197" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G197" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -15081,16 +15081,16 @@
         <v>439</v>
       </c>
       <c r="L197" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M197" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N197" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O197">
-        <v>1269</v>
+        <v>1282</v>
       </c>
       <c r="P197">
         <v>97</v>
@@ -15128,19 +15128,19 @@
         <v>147</v>
       </c>
       <c r="B198" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C198" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E198" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F198" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G198" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -15187,19 +15187,19 @@
         <v>146</v>
       </c>
       <c r="B199" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C199" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E199" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F199" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G199" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -15246,13 +15246,13 @@
         <v>137</v>
       </c>
       <c r="B200" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C200" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E200" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -15299,19 +15299,19 @@
         <v>136</v>
       </c>
       <c r="B201" t="s">
+        <v>588</v>
+      </c>
+      <c r="C201" t="s">
+        <v>101</v>
+      </c>
+      <c r="E201" t="s">
         <v>587</v>
       </c>
-      <c r="C201" t="s">
-        <v>100</v>
-      </c>
-      <c r="E201" t="s">
-        <v>586</v>
-      </c>
       <c r="F201" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G201" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -15358,13 +15358,13 @@
         <v>135</v>
       </c>
       <c r="B202" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C202" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E202" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -15411,13 +15411,13 @@
         <v>134</v>
       </c>
       <c r="B203" t="s">
+        <v>593</v>
+      </c>
+      <c r="C203" t="s">
+        <v>122</v>
+      </c>
+      <c r="E203" t="s">
         <v>592</v>
-      </c>
-      <c r="C203" t="s">
-        <v>121</v>
-      </c>
-      <c r="E203" t="s">
-        <v>591</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -15464,13 +15464,13 @@
         <v>133</v>
       </c>
       <c r="B204" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C204" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E204" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -15517,28 +15517,28 @@
         <v>132</v>
       </c>
       <c r="B205" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C205" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D205">
         <v>7457345734</v>
       </c>
       <c r="E205" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F205" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G205" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J205">
         <v>576</v>
@@ -15547,13 +15547,13 @@
         <v>96</v>
       </c>
       <c r="L205" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M205" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N205" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O205">
         <v>312</v>
@@ -15594,19 +15594,19 @@
         <v>131</v>
       </c>
       <c r="B206" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C206" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E206" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F206" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G206" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H206">
         <v>14</v>
@@ -15621,13 +15621,13 @@
         <v>969</v>
       </c>
       <c r="L206" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M206" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N206" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O206">
         <v>919</v>
@@ -15668,19 +15668,19 @@
         <v>130</v>
       </c>
       <c r="B207" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C207" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E207" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F207" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G207" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -15727,22 +15727,22 @@
         <v>129</v>
       </c>
       <c r="B208" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C208" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D208">
         <v>9703024347</v>
       </c>
       <c r="E208" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F208" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G208" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -15789,13 +15789,13 @@
         <v>128</v>
       </c>
       <c r="B209" t="s">
+        <v>611</v>
+      </c>
+      <c r="C209" t="s">
+        <v>122</v>
+      </c>
+      <c r="E209" t="s">
         <v>610</v>
-      </c>
-      <c r="C209" t="s">
-        <v>121</v>
-      </c>
-      <c r="E209" t="s">
-        <v>609</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -15842,13 +15842,13 @@
         <v>127</v>
       </c>
       <c r="B210" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C210" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E210" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -15895,49 +15895,49 @@
         <v>126</v>
       </c>
       <c r="B211" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C211" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E211" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F211" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G211" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="H211">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I211">
         <v>43</v>
       </c>
       <c r="J211">
-        <v>241566</v>
+        <v>241964</v>
       </c>
       <c r="K211">
-        <v>61398</v>
+        <v>61526</v>
       </c>
       <c r="L211" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M211" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N211" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O211">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="P211">
         <v>426</v>
       </c>
       <c r="Q211">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R211">
         <v>48</v>
@@ -15949,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="U211">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="V211">
         <v>0</v>
@@ -15969,19 +15969,19 @@
         <v>125</v>
       </c>
       <c r="B212" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C212" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E212" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F212" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G212" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -16031,43 +16031,43 @@
         <v>124</v>
       </c>
       <c r="B213" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C213" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E213" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F213" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G213" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="H213">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I213">
         <v>28</v>
       </c>
       <c r="J213">
-        <v>112337.46</v>
+        <v>112783.36</v>
       </c>
       <c r="K213">
-        <v>12793</v>
+        <v>12418</v>
       </c>
       <c r="L213" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M213" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N213" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O213">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="P213">
         <v>58</v>
@@ -16085,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="U213">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V213">
         <v>0</v>
@@ -16105,19 +16105,19 @@
         <v>123</v>
       </c>
       <c r="B214" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C214" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E214" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F214" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G214" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -16164,13 +16164,13 @@
         <v>122</v>
       </c>
       <c r="B215" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C215" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E215" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -16217,10 +16217,10 @@
         <v>121</v>
       </c>
       <c r="B216" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E216" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -16267,13 +16267,13 @@
         <v>120</v>
       </c>
       <c r="B217" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C217" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E217" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -16320,19 +16320,19 @@
         <v>119</v>
       </c>
       <c r="B218" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C218" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E218" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F218" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G218" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -16379,10 +16379,10 @@
         <v>116</v>
       </c>
       <c r="B219" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E219" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -16429,19 +16429,19 @@
         <v>114</v>
       </c>
       <c r="B220" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C220" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E220" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F220" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G220" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -16491,19 +16491,19 @@
         <v>112</v>
       </c>
       <c r="B221" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C221" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E221" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F221" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G221" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -16553,73 +16553,73 @@
         <v>111</v>
       </c>
       <c r="B222" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C222" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E222" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F222" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G222" t="s">
         <v>32</v>
       </c>
       <c r="H222">
-        <v>2257</v>
+        <v>2349</v>
       </c>
       <c r="I222">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J222">
-        <v>3260724.26</v>
+        <v>3387604.26</v>
       </c>
       <c r="K222">
-        <v>540480</v>
+        <v>566784</v>
       </c>
       <c r="L222" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M222" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N222" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O222">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="P222">
         <v>2171</v>
       </c>
       <c r="Q222">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="R222">
+        <v>635</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>80</v>
+      </c>
+      <c r="U222">
+        <v>159</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
         <v>620</v>
       </c>
-      <c r="S222">
-        <v>0</v>
-      </c>
-      <c r="T222">
-        <v>77</v>
-      </c>
-      <c r="U222">
-        <v>154</v>
-      </c>
-      <c r="V222">
-        <v>0</v>
-      </c>
-      <c r="W222">
-        <v>594</v>
-      </c>
       <c r="X222">
         <v>0</v>
       </c>
       <c r="Y222">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
@@ -16627,10 +16627,10 @@
         <v>110</v>
       </c>
       <c r="B223" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E223" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -16677,19 +16677,19 @@
         <v>109</v>
       </c>
       <c r="B224" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C224" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E224" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F224" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G224" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -16736,19 +16736,19 @@
         <v>108</v>
       </c>
       <c r="B225" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C225" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E225" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F225" t="s">
         <v>497</v>
       </c>
       <c r="G225" t="s">
-        <v>299</v>
+        <v>504</v>
       </c>
       <c r="H225">
         <v>5</v>
@@ -16763,13 +16763,13 @@
         <v>-1466</v>
       </c>
       <c r="L225" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M225" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N225" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O225">
         <v>812</v>
@@ -16810,10 +16810,10 @@
         <v>107</v>
       </c>
       <c r="B226" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E226" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -16860,10 +16860,10 @@
         <v>106</v>
       </c>
       <c r="B227" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E227" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -16910,19 +16910,19 @@
         <v>105</v>
       </c>
       <c r="B228" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C228" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E228" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F228" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G228" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -16969,22 +16969,22 @@
         <v>104</v>
       </c>
       <c r="B229" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C229" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D229">
         <v>6608008004</v>
       </c>
       <c r="E229" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F229" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G229" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="H229">
         <v>727</v>
@@ -16999,16 +16999,16 @@
         <v>19364</v>
       </c>
       <c r="L229" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M229" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N229" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O229">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P229">
         <v>306</v>
@@ -17026,7 +17026,7 @@
         <v>0</v>
       </c>
       <c r="U229">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="V229">
         <v>0</v>
@@ -17046,16 +17046,16 @@
         <v>103</v>
       </c>
       <c r="B230" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C230" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E230" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F230" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G230" t="s">
         <v>28</v>
@@ -17073,13 +17073,13 @@
         <v>783</v>
       </c>
       <c r="L230" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M230" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N230" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O230">
         <v>763</v>
@@ -17120,10 +17120,10 @@
         <v>102</v>
       </c>
       <c r="B231" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E231" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -17170,13 +17170,13 @@
         <v>101</v>
       </c>
       <c r="B232" t="s">
+        <v>683</v>
+      </c>
+      <c r="C232" t="s">
+        <v>101</v>
+      </c>
+      <c r="E232" t="s">
         <v>682</v>
-      </c>
-      <c r="C232" t="s">
-        <v>100</v>
-      </c>
-      <c r="E232" t="s">
-        <v>681</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -17223,13 +17223,13 @@
         <v>99</v>
       </c>
       <c r="B233" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C233" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E233" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -17276,10 +17276,10 @@
         <v>98</v>
       </c>
       <c r="B234" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E234" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -17326,13 +17326,13 @@
         <v>92</v>
       </c>
       <c r="B235" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C235" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E235" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -17379,10 +17379,10 @@
         <v>91</v>
       </c>
       <c r="B236" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E236" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -17429,19 +17429,19 @@
         <v>90</v>
       </c>
       <c r="B237" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C237" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E237" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F237" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G237" t="s">
-        <v>299</v>
+        <v>55</v>
       </c>
       <c r="H237">
         <v>2</v>
@@ -17456,16 +17456,16 @@
         <v>495</v>
       </c>
       <c r="L237" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M237" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N237" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O237">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="P237">
         <v>1</v>
@@ -17503,19 +17503,19 @@
         <v>80</v>
       </c>
       <c r="B238" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C238" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E238" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F238" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G238" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -17562,19 +17562,19 @@
         <v>79</v>
       </c>
       <c r="B239" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C239" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E239" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F239" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G239" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -17621,19 +17621,19 @@
         <v>78</v>
       </c>
       <c r="B240" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C240" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E240" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F240" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G240" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -17680,19 +17680,19 @@
         <v>77</v>
       </c>
       <c r="B241" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C241" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E241" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F241" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G241" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -17739,19 +17739,19 @@
         <v>76</v>
       </c>
       <c r="B242" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C242" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E242" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F242" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G242" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="H242">
         <v>18</v>
@@ -17766,16 +17766,16 @@
         <v>-2548</v>
       </c>
       <c r="L242" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M242" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N242" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O242">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="P242">
         <v>7</v>
@@ -17813,19 +17813,19 @@
         <v>75</v>
       </c>
       <c r="B243" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C243" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E243" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F243" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G243" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -17872,10 +17872,10 @@
         <v>73</v>
       </c>
       <c r="B244" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E244" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -17922,13 +17922,13 @@
         <v>72</v>
       </c>
       <c r="B245" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D245">
         <v>5</v>
       </c>
       <c r="E245" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -17975,46 +17975,46 @@
         <v>1</v>
       </c>
       <c r="B246" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C246" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D246">
         <v>1111111</v>
       </c>
       <c r="E246" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F246" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G246" t="s">
         <v>32</v>
       </c>
       <c r="H246">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I246">
         <v>61</v>
       </c>
       <c r="J246">
-        <v>109938.65</v>
+        <v>115231.7</v>
       </c>
       <c r="K246">
-        <v>6876</v>
+        <v>7128</v>
       </c>
       <c r="L246" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M246" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N246" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O246">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="P246">
         <v>44</v>
@@ -18032,13 +18032,13 @@
         <v>0</v>
       </c>
       <c r="U246">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="V246">
         <v>0</v>
       </c>
       <c r="W246">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X246">
         <v>0</v>
